--- a/EXCEL_OUPUT/2022.xlsx
+++ b/EXCEL_OUPUT/2022.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="608">
   <si>
     <t>Responsibilities of the</t>
   </si>
@@ -86,7 +86,7 @@
     <t>Financial Report that</t>
   </si>
   <si>
-    <t>necessary internal</t>
+    <t>necessary internal control to enable the preparation</t>
   </si>
   <si>
     <t>basis of accounting</t>
@@ -104,9 +104,6 @@
     <t>Disclosure Requirements and</t>
   </si>
   <si>
-    <t>control to enable the preparation</t>
-  </si>
-  <si>
     <t>is appropriate. This includes disclosing, as applicable,</t>
   </si>
   <si>
@@ -176,7 +173,7 @@
     <t>March 2022;</t>
   </si>
   <si>
-    <t>comprehensive income,</t>
+    <t>comprehensive income, Statement of</t>
   </si>
   <si>
     <t>changes in equity, and Statement of cash</t>
@@ -191,13 +188,13 @@
     <t>Directors' Declaration.</t>
   </si>
   <si>
-    <t>Statement of</t>
-  </si>
-  <si>
     <t>Basis for opinion</t>
   </si>
   <si>
-    <t>of lease liabilities at the beginning and end of the current financial year are set out below:</t>
+    <t>Reconciliation</t>
+  </si>
+  <si>
+    <t>Reconciliation of lease liabilities at the beginning and end of the current financial year are set out below:</t>
   </si>
   <si>
     <t>Balance at 1 April 2021</t>
@@ -218,10 +215,10 @@
     <t>17.</t>
   </si>
   <si>
-    <t>In of AUD</t>
-  </si>
-  <si>
-    <t>expected to be settled within 12 months</t>
+    <t>Int thousands of AUD</t>
+  </si>
+  <si>
+    <t>Amount expected to be settled within 12 months</t>
   </si>
   <si>
     <t>Amount expected to be settled after more than 12 months</t>
@@ -242,117 +239,117 @@
     <t>18.</t>
   </si>
   <si>
+    <t>Inthousands ofAUD</t>
+  </si>
+  <si>
+    <t>Transfer to revenue = included in opening balance</t>
+  </si>
+  <si>
+    <t>Increase in cash received excluding amounts recognised as revenue during the year</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>8810</t>
+  </si>
+  <si>
+    <t>6677</t>
+  </si>
+  <si>
+    <t>(6,677)</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>(73)</t>
+  </si>
+  <si>
+    <t>1771</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>(734)</t>
+  </si>
+  <si>
+    <t>1270</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>6255</t>
+  </si>
+  <si>
+    <t>(6,255)</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>(177)</t>
+  </si>
+  <si>
+    <t>Depreciation expense</t>
+  </si>
+  <si>
+    <t>Office Other Premises</t>
+  </si>
+  <si>
+    <t>1146</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>(498)</t>
+  </si>
+  <si>
+    <t>817</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>445</t>
+  </si>
+  <si>
+    <t>(138)</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>1591</t>
+  </si>
+  <si>
+    <t>(636)</t>
+  </si>
+  <si>
+    <t>1127</t>
+  </si>
+  <si>
+    <t>Related Parties (continued)</t>
+  </si>
+  <si>
+    <t>d. Payable to related parties (Note 9.)</t>
+  </si>
+  <si>
     <t>In thousands of AUD</t>
   </si>
   <si>
-    <t>Amount expected to be settled within 12 months</t>
-  </si>
-  <si>
-    <t>Transfer to included in opening balance</t>
-  </si>
-  <si>
-    <t>Increase in cash received excluding amounts recognised as during the year</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>8810</t>
-  </si>
-  <si>
-    <t>6677</t>
-  </si>
-  <si>
-    <t>(6,677)</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>(73)</t>
-  </si>
-  <si>
-    <t>1771</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>(734)</t>
-  </si>
-  <si>
-    <t>1270</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>6255</t>
-  </si>
-  <si>
-    <t>(6,255)</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>(177)</t>
-  </si>
-  <si>
-    <t>Depreciation expense</t>
-  </si>
-  <si>
-    <t>Office Other Premises</t>
-  </si>
-  <si>
-    <t>1146</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>(498)</t>
-  </si>
-  <si>
-    <t>817</t>
-  </si>
-  <si>
-    <t>Equipment</t>
-  </si>
-  <si>
-    <t>445</t>
-  </si>
-  <si>
-    <t>(138)</t>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>1591</t>
-  </si>
-  <si>
-    <t>(636)</t>
-  </si>
-  <si>
-    <t>1127</t>
-  </si>
-  <si>
-    <t>Related Parties (continued)</t>
-  </si>
-  <si>
-    <t>d. Payable to related parties (Note 9.)</t>
-  </si>
-  <si>
     <t>Sumitomo Mitsui Auto Service Co., Ltd</t>
   </si>
   <si>
@@ -368,10 +365,10 @@
     <t>e. Receivable from related entities (Note 6.)</t>
   </si>
   <si>
-    <t>f.Borrowings from related parties (Note 10.)</t>
-  </si>
-  <si>
-    <t>Int thousands of AUD</t>
+    <t>Ini thousands of AUD</t>
+  </si>
+  <si>
+    <t>f.B Borrowings from related parties (Note 10.)</t>
   </si>
   <si>
     <t>In AUD</t>
@@ -380,7 +377,7 @@
     <t>Audit Services</t>
   </si>
   <si>
-    <t>Audit of financial rep port</t>
+    <t>Audit of financial report</t>
   </si>
   <si>
     <t>Other services</t>
@@ -392,9 +389,6 @@
     <t>Right-of-use assets</t>
   </si>
   <si>
-    <t>Right-of-use assets - at cost</t>
-  </si>
-  <si>
     <t>Less Accumulated depreciation</t>
   </si>
   <si>
@@ -440,7 +434,10 @@
     <t>On Issue at 31 March</t>
   </si>
   <si>
-    <t>b. with key management personnel</t>
+    <t>b. Transactions with key management personnel</t>
+  </si>
+  <si>
+    <t>In thousands OfAUD</t>
   </si>
   <si>
     <t>Short-term employee benefits</t>
@@ -452,22 +449,22 @@
     <t>Compensation</t>
   </si>
   <si>
-    <t>C. Other related party transactions</t>
+    <t>c.Other related party transactions</t>
+  </si>
+  <si>
+    <t>In thousands of FAUD</t>
   </si>
   <si>
     <t>Service fees</t>
   </si>
   <si>
-    <t>Mitsui Auto Service Co., Ltd</t>
-  </si>
-  <si>
-    <t>Fees</t>
+    <t>Guarantee Fees</t>
   </si>
   <si>
     <t>Total guarantee fees</t>
   </si>
   <si>
-    <t>Dividend franking 2022</t>
+    <t>Dividend franking account 2022</t>
   </si>
   <si>
     <t>Amount of franking credits available to shareholders of the Company for subsequent</t>
@@ -551,7 +548,7 @@
     <t>Secured liabilities</t>
   </si>
   <si>
-    <t>The Bank of Tokyo Mitsubishi (UFJ) Limited</t>
+    <t>The Bank of Tokyo - Mitsubishi (UFI) Limited</t>
   </si>
   <si>
     <t>Mizuho Corporate Bank Limited</t>
@@ -569,12 +566,6 @@
     <t>Unlikely to be settled in the next 12 months</t>
   </si>
   <si>
-    <t>The Bank of Tokyo (UFJ) Limited</t>
-  </si>
-  <si>
-    <t>Mitsui Banking Corporation</t>
-  </si>
-  <si>
     <t>Total borrowings</t>
   </si>
   <si>
@@ -611,6 +602,9 @@
     <t>(26)</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>(125)</t>
   </si>
   <si>
@@ -674,7 +668,7 @@
     <t>Unlikely to be recovered in the next 12 months</t>
   </si>
   <si>
-    <t>Plant and equipment - at cost</t>
+    <t>Plant and equipment = at cost</t>
   </si>
   <si>
     <t>Less: accumulated depreciation</t>
@@ -719,9 +713,6 @@
     <t>234</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>182268</t>
   </si>
   <si>
@@ -755,7 +746,7 @@
     <t>177177</t>
   </si>
   <si>
-    <t>Lease</t>
+    <t>Auto Lease Australia</t>
   </si>
   <si>
     <t>Notes to the financial statements (continued)</t>
@@ -764,19 +755,22 @@
     <t>Cash and cash equivalents</t>
   </si>
   <si>
+    <t>In thousands ofAUD</t>
+  </si>
+  <si>
     <t>Cash at bank</t>
   </si>
   <si>
     <t>Trade and other receivables</t>
   </si>
   <si>
-    <t>Trade</t>
+    <t>Trade receivables</t>
   </si>
   <si>
     <t>Finance lease receivables</t>
   </si>
   <si>
-    <t>Chattel mortgage</t>
+    <t>Chattel mortgage receivables</t>
   </si>
   <si>
     <t>Other receivables and prepayments</t>
@@ -785,15 +779,6 @@
     <t>Provision for impairment of receivables</t>
   </si>
   <si>
-    <t>Unlikely to be in the next 12 months</t>
-  </si>
-  <si>
-    <t>Finance lease</t>
-  </si>
-  <si>
-    <t>Chattel mortgage receivables</t>
-  </si>
-  <si>
     <t>Total trade and other receivables</t>
   </si>
   <si>
@@ -806,7 +791,7 @@
     <t>(c) Chattel mortgage receivables</t>
   </si>
   <si>
-    <t>In thousands OfAUD</t>
+    <t>Int thousands ofAUD</t>
   </si>
   <si>
     <t>Gross investment</t>
@@ -830,915 +815,918 @@
     <t>Cost:</t>
   </si>
   <si>
-    <t>Balance at 1 April2021 1,623 177</t>
-  </si>
-  <si>
-    <t>Additions 60 1</t>
+    <t>Balance at 1 April 2021 1,623 177</t>
+  </si>
+  <si>
+    <t>Additions 60 1 7</t>
   </si>
   <si>
     <t>Disposals (69) (3)</t>
   </si>
   <si>
-    <t>175 2022 1,614</t>
-  </si>
-  <si>
-    <t>Fixtures and fittings Improvement</t>
+    <t>at 31 175 March 2022 1,614</t>
+  </si>
+  <si>
+    <t>Fixtures and Leasehold fittings Improvement</t>
   </si>
   <si>
     <t>575 10</t>
   </si>
   <si>
+    <t>582 10</t>
+  </si>
+  <si>
+    <t>7114</t>
+  </si>
+  <si>
+    <t>3109</t>
+  </si>
+  <si>
+    <t>14421</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>1899</t>
+  </si>
+  <si>
+    <t>(187)</t>
+  </si>
+  <si>
+    <t>19392</t>
+  </si>
+  <si>
+    <t>40007</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>59529</t>
+  </si>
+  <si>
+    <t>54428</t>
+  </si>
+  <si>
+    <t>297</t>
+  </si>
+  <si>
+    <t>(17)</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>284056</t>
+  </si>
+  <si>
+    <t>72479</t>
+  </si>
+  <si>
+    <t>(58,050)</t>
+  </si>
+  <si>
+    <t>298485</t>
+  </si>
+  <si>
+    <t>6056</t>
+  </si>
+  <si>
+    <t>1350</t>
+  </si>
+  <si>
+    <t>11648</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>(124)</t>
+  </si>
+  <si>
+    <t>14728</t>
+  </si>
+  <si>
+    <t>36169</t>
+  </si>
+  <si>
+    <t>51177</t>
+  </si>
+  <si>
+    <t>47817</t>
+  </si>
+  <si>
+    <t>460</t>
+  </si>
+  <si>
+    <t>(34)</t>
+  </si>
+  <si>
+    <t>426</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>286441</t>
+  </si>
+  <si>
+    <t>72547</t>
+  </si>
+  <si>
+    <t>(58,743)</t>
+  </si>
+  <si>
+    <t>300866</t>
+  </si>
+  <si>
+    <t>(c) Movement in deferred tax balances 2021</t>
+  </si>
+  <si>
+    <t>Doubtful debts</t>
+  </si>
+  <si>
+    <t>Accrued expenses and provisions</t>
+  </si>
+  <si>
+    <t>Leasing adjustments</t>
+  </si>
+  <si>
+    <t>Carried forward tax losses</t>
+  </si>
+  <si>
+    <t>Set off DTL against DTA</t>
+  </si>
+  <si>
+    <t>Net deferred tax (liabilities)</t>
+  </si>
+  <si>
+    <t>Opening balance</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>446</t>
+  </si>
+  <si>
+    <t>554</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>(4,052)</t>
+  </si>
+  <si>
+    <t>(2,961)</t>
+  </si>
+  <si>
+    <t>Recognised in profit or loss</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>(101)</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>(4)</t>
+  </si>
+  <si>
+    <t>(8,104)</t>
+  </si>
+  <si>
+    <t>3619</t>
+  </si>
+  <si>
+    <t>(4,526)</t>
+  </si>
+  <si>
+    <t>Net</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>612</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>(12,156)</t>
+  </si>
+  <si>
+    <t>(7,487)</t>
+  </si>
+  <si>
+    <t>Deferred tax assets</t>
+  </si>
+  <si>
+    <t>4669</t>
+  </si>
+  <si>
+    <t>(1,050)</t>
+  </si>
+  <si>
+    <t>Deferred tax liabilities</t>
+  </si>
+  <si>
+    <t>1050</t>
+  </si>
+  <si>
+    <t>(11,106)</t>
+  </si>
+  <si>
+    <t>4. Income tax (continued)</t>
+  </si>
+  <si>
+    <t>(c) Movement in deferred tax balances 2022</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>(21,312)</t>
+  </si>
+  <si>
+    <t>14823</t>
+  </si>
+  <si>
+    <t>(6,321)</t>
+  </si>
+  <si>
+    <t>398</t>
+  </si>
+  <si>
+    <t>681</t>
+  </si>
+  <si>
+    <t>(33,468)</t>
+  </si>
+  <si>
+    <t>18442</t>
+  </si>
+  <si>
+    <t>(13,808)</t>
+  </si>
+  <si>
+    <t>19689</t>
+  </si>
+  <si>
+    <t>(1,191)</t>
+  </si>
+  <si>
+    <t>Deferred liabilities</t>
+  </si>
+  <si>
+    <t>1191</t>
+  </si>
+  <si>
+    <t>(32,277)</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>Rental Income</t>
+  </si>
+  <si>
+    <t>Income from contracts with customers</t>
+  </si>
+  <si>
+    <t>Management and maintenance income</t>
+  </si>
+  <si>
+    <t>Additional product and services income</t>
+  </si>
+  <si>
+    <t>End of lease income</t>
+  </si>
+  <si>
+    <t>Other income</t>
+  </si>
+  <si>
+    <t>Total lease income</t>
+  </si>
+  <si>
+    <t>Income tax</t>
+  </si>
+  <si>
+    <t>(a). Amounts recognised in profit or loss</t>
+  </si>
+  <si>
+    <t>Current tax expense</t>
+  </si>
+  <si>
+    <t>Current year</t>
+  </si>
+  <si>
+    <t>Adjustment for prior years</t>
+  </si>
+  <si>
+    <t>Deferred tax expense</t>
+  </si>
+  <si>
+    <t>Deferred tax - origination and utilisation of carried forward tax losses</t>
+  </si>
+  <si>
+    <t>Deferred tax - origination and reversal of temporary differences</t>
+  </si>
+  <si>
+    <t>(14,823)</t>
+  </si>
+  <si>
+    <t>21171</t>
+  </si>
+  <si>
+    <t>6348</t>
+  </si>
+  <si>
+    <t>(3,619)</t>
+  </si>
+  <si>
+    <t>8160</t>
+  </si>
+  <si>
+    <t>4534</t>
+  </si>
+  <si>
+    <t>21080</t>
+  </si>
+  <si>
+    <t>6324</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>15072</t>
+  </si>
+  <si>
+    <t>4522</t>
+  </si>
+  <si>
+    <t>Revenue recognition (continued)</t>
+  </si>
+  <si>
+    <t>(i) Revenue from contracts with customers (continued)</t>
+  </si>
+  <si>
+    <t>Fleet management income and management fees are brought to account over time on a straight- line</t>
+  </si>
+  <si>
+    <t>basis over the term of the lease. Maintenance income is recognised over time as services are provided.</t>
+  </si>
+  <si>
+    <t>The amount of revenue to recognise is assessed based on the direct measurement of the value to the</t>
+  </si>
+  <si>
+    <t>customer of services transferred to date, relative to the remaining goods or services promised under the</t>
+  </si>
+  <si>
+    <t>maintenance contract.</t>
+  </si>
+  <si>
+    <t>Additional products or services</t>
+  </si>
+  <si>
+    <t>Revenue from the sale of additional products and services is recognised as the goods are delivered and have been accepted by customers and services are provided. Generally revenue will be recognized using an input measure.</t>
+  </si>
+  <si>
+    <t>Income earned after the expiry of a lease is recognised when it is received or when the performance obligation</t>
+  </si>
+  <si>
+    <t>has been satisfied and the right to payment is established. For income from used vehicle sales, revenue is</t>
+  </si>
+  <si>
+    <t>recognised when the customer obtains control of the vehicle. Generally revenue will be recognized using an</t>
+  </si>
+  <si>
+    <t>input measure.</t>
+  </si>
+  <si>
+    <t>Other income is recognised when the performance obligation has been satisfied and the right to payment is established. Generally revenue will be recognized using an input measure, typically costs incurred.</t>
+  </si>
+  <si>
+    <t>(ii) Interest income</t>
+  </si>
+  <si>
+    <t>Interest income is recognised as interest accrues using the effective interest method. This is a method of calculating the amortized cost ofa financial asset and allocating the interest income over the relevant period using the effective interest rate, which is the rate that exactly discounts estimated future cash receipts through the expected life of the financial asset to the net carrying amount of the financial asset.</t>
+  </si>
+  <si>
+    <t>Finance costs comprise interest expense on borrowings and impairment losses recognised on financial assets (other than</t>
+  </si>
+  <si>
+    <t>trade receivables). Interest income or expense is recognised using the effective interest method.</t>
+  </si>
+  <si>
+    <t>Revenue, expenses and assets are recognised net of the amount of GST, except where the amount of GST incurred is not</t>
+  </si>
+  <si>
+    <t>recoverable from the Australian Tax Office. In these circumstances the GST is recognised as part of the cost of acquisition of</t>
+  </si>
+  <si>
+    <t>the asset or as part of an item ofthe expense. Receivables and payables in the Balance Sheet are inclusive of GST</t>
+  </si>
+  <si>
+    <t>A number of new standards are effective for annual periods beginning after 1 April 2021, including AASB 1060 General</t>
+  </si>
+  <si>
+    <t>Purpose Financial Statements - Simplified Disclosures for For-Profit and Not-for Profit Tier 2 Entities (AASB 1060), and</t>
+  </si>
+  <si>
+    <t>earlier application is permitted; the Company has not early adopted the new or amended standards in preparing these financial statements, and the impact is assessed by the Company to be immaterial.</t>
+  </si>
+  <si>
+    <t>(h) Impairment (continued)</t>
+  </si>
+  <si>
+    <t>(i) Non-financial assets</t>
+  </si>
+  <si>
+    <t>At each reporting date, the Company reviews the carrying amounts of its non-financial assets (other than inventories and</t>
+  </si>
+  <si>
+    <t>deferred tax assets) to determine whether there is any indication of impairment. If any such indication exists, then the asset's recoverable amount is estimated.</t>
+  </si>
+  <si>
+    <t>(i) Employee benefits</t>
+  </si>
+  <si>
+    <t>(i) Short-term employee benefits</t>
+  </si>
+  <si>
+    <t>Short-term employee benefit obligations are expensed as the related service is provided. A liability is recognised for the</t>
+  </si>
+  <si>
+    <t>amount expected to be paid under short-term cash bonus or profit-sharing plans if the Company has a present legal or</t>
+  </si>
+  <si>
+    <t>constructive obligation to pay this amount as a result of pastservice provided by the employee and the obligation can be</t>
+  </si>
+  <si>
+    <t>estimated reliably.</t>
+  </si>
+  <si>
+    <t>(i) Defined contribution plans</t>
+  </si>
+  <si>
+    <t>A defined contribution plan is a postemployment benefit plan under which an entity pays fixed contributions into a separate</t>
+  </si>
+  <si>
+    <t>entity and will have no legal or constructive obligation to pay further amounts. Obligations for contributions to defined</t>
+  </si>
+  <si>
+    <t>contribution plans are recognised as an employee benefit expense in profit or loss in the periods during which services are rendered by employees.</t>
+  </si>
+  <si>
+    <t>(ii) Long-term employee benefits</t>
+  </si>
+  <si>
+    <t>The Company's net obligation in respect of long term employee benefits is the amount of future benefit that employees</t>
+  </si>
+  <si>
+    <t>have earned in return for their service in the current and prior periods. That benefit is discounted to determine its present</t>
+  </si>
+  <si>
+    <t>value.</t>
+  </si>
+  <si>
+    <t>() Income tax</t>
+  </si>
+  <si>
+    <t>Income tax expense comprises current and deferred tax. Itis recognised in profit or loss except to the extent that it relates</t>
+  </si>
+  <si>
+    <t>to items recognised directly in equity or in other comprehensive income.</t>
+  </si>
+  <si>
+    <t>i) Current tax</t>
+  </si>
+  <si>
+    <t>Current tax comprises the expected tax payable or receivable on the taxable income or loss for the year and any adjustment</t>
+  </si>
+  <si>
+    <t>to tax payable or receivable in respect of previous years. It is measured using tax rates enacted or substantively enacted at</t>
+  </si>
+  <si>
+    <t>the reporting date. Current tax also includes any tax liability arising from dividends.</t>
+  </si>
+  <si>
+    <t>(ii) Deferred tax</t>
+  </si>
+  <si>
+    <t>Deferred tax is recognised in respect of temporary differences between the carrying amounts of assets and liabilities for</t>
+  </si>
+  <si>
+    <t>financial reporting purposes and the amounts used for taxation purposes. Deferred tax is not recognised for temporary</t>
+  </si>
+  <si>
+    <t>differences on the initial recognition of assets or liabilities in a transaction that is not a business combination and that</t>
+  </si>
+  <si>
+    <t>affects neither accounting nor taxable profit or loss.</t>
+  </si>
+  <si>
+    <t>Deferred tax is measured at the tax rates that are expected to be applied to temporary differences when they reverse,</t>
+  </si>
+  <si>
+    <t>based on the laws that have been enacted or substantively enacted at the reporting date.</t>
+  </si>
+  <si>
+    <t>The measurement of deferred tax reflects the tax consequences that would follow the in which the Company expects, at the reporting date, to recover or settle the carrying amount of its assets and liabilities.</t>
+  </si>
+  <si>
+    <t>A deferred tax asset is recognised for unused tax losses, tax credits and deductible temporary differences, to the extent that itis probable that future taxable profits will be available against which they can be utilised. Deferred tax assets are reviewed</t>
+  </si>
+  <si>
+    <t>at each reporting date and are reduced to the extent that it is no longer probable that the related tax benefit will be</t>
+  </si>
+  <si>
+    <t>realised.</t>
+  </si>
+  <si>
+    <t>1. Significant accounting policies (continued)</t>
+  </si>
+  <si>
+    <t>(d) Presentation of statement of financial position on a liquidity basis</t>
+  </si>
+  <si>
+    <t>The statement of financial position has been presented on a liquidity basis as this presentation provides information that is more reliable and relevant to users in assessing the financial position of a leasing and fleet business where the realisation of</t>
+  </si>
+  <si>
+    <t>PP&amp;E assets is directly linked to underlying lease terms. The notes to the financial statements disclose the amount expected</t>
+  </si>
+  <si>
+    <t>to be recovered or settled after more than twelve months for each asset and liability line item that combines amounts</t>
+  </si>
+  <si>
+    <t>expected to be recovered or settled no more than twelve months after the reporting period, and more than twelve months</t>
+  </si>
+  <si>
+    <t>after the reporting period.</t>
+  </si>
+  <si>
+    <t>(e) Inventories</t>
+  </si>
+  <si>
+    <t>End-of-term operating lease assets are stated at the lower of cost and net realisable value as determined by reference to the subsequent selling value of vehicles after 31 March 2022. Net realisable value is the estimated selling price in the ordinary course of business less, selling expenses.</t>
+  </si>
+  <si>
+    <t>(f) Property, plant and equipment</t>
+  </si>
+  <si>
+    <t>(1) Recognition, measurement, and disposal</t>
+  </si>
+  <si>
+    <t>Items of property, plant and equipment are measured at cost less accumulated depreciation and accumulated impairment</t>
+  </si>
+  <si>
+    <t>losses. Cost includes expenditure that is directly attributable to the acquisition of the asset. Purchased software that is</t>
+  </si>
+  <si>
+    <t>integral to the functionality of the related equipment is capitalised as parto of that equipment. When parts of an item of</t>
+  </si>
+  <si>
+    <t>property, plant and equipment have different useful lives, they are accounted for as separate items (major components) of</t>
+  </si>
+  <si>
+    <t>property, plant and equipment. The gains and losses on disposal of an item of property, plant and equipment except the</t>
+  </si>
+  <si>
+    <t>motor vehicle for lease to customers are determined by comparing the proceeds from disposal with the carrying amount of</t>
+  </si>
+  <si>
+    <t>property, plant and equipment and are recognised net within other income / other expenses in profit or loss. The motor</t>
+  </si>
+  <si>
+    <t>vehicles for lease to customers are transferred from property, plant and equipment to inventory at their carrying amount</t>
+  </si>
+  <si>
+    <t>when they cease to be rented and become held-for-sale. The proceeds from disposals of motor vehicles which were leased</t>
+  </si>
+  <si>
+    <t>to customers are recognised as revenue.</t>
+  </si>
+  <si>
+    <t>(i) Subsequent costs</t>
+  </si>
+  <si>
+    <t>Subsequent expenditure is capitalised only when it is probable that the future economic benefits associated with the expenditure will flow to the Company.</t>
+  </si>
+  <si>
+    <t>(ii) Depreciation and impairment</t>
+  </si>
+  <si>
+    <t>Depreciation is calculated to write off the cost of property, plant and equipment less their estimated residual value using</t>
+  </si>
+  <si>
+    <t>the straight-line basis over their estimated useful lives, and is generally recognised in profit and loss. Motor vehicles, which</t>
+  </si>
+  <si>
+    <t>are leased to customers under operating lease contracts, are depreciated at a rate that will reduce the cost price to the</t>
+  </si>
+  <si>
+    <t>estimated residual value by the end of the lease term. Residual value is assessed for impairment and in the event ofa</t>
+  </si>
+  <si>
+    <t>shortfall, an impairment charge is recognised in the current period.</t>
+  </si>
+  <si>
+    <t>The following useful lives are used in the calculation of depreciation:</t>
+  </si>
+  <si>
+    <t>Plant and equipment: 3 15 years</t>
+  </si>
+  <si>
+    <t>Furniture and fittings: 3 - 15 years</t>
+  </si>
+  <si>
+    <t>Motor vehicles: 3 8 years</t>
+  </si>
+  <si>
+    <t>Depreciation methods, useful lives and residual values are reviewed at each reporting date and adjusted if appropriate.</t>
+  </si>
+  <si>
+    <t>(g) Financial instruments</t>
+  </si>
+  <si>
+    <t>AASB 9 Financial Instruments sets out requirements for the recognition, measurement, impairment and derecognition of</t>
+  </si>
+  <si>
+    <t>financial instruments and general hedge accounting of financial assets of the Company includes cash and cash equivalents</t>
+  </si>
+  <si>
+    <t>Summit Auto Lease Australia Pty Limited</t>
+  </si>
+  <si>
+    <t>Statement of Cash Flows</t>
+  </si>
+  <si>
+    <t>For the year ended 31 March 2022</t>
+  </si>
+  <si>
+    <t>Cash flows from operating activities</t>
+  </si>
+  <si>
+    <t>Receipts from customers</t>
+  </si>
+  <si>
+    <t>Payments to employees and suppliers</t>
+  </si>
+  <si>
+    <t>Purchase of plant and equipment leased to external parties pursuant to operating lease</t>
+  </si>
+  <si>
+    <t>Interest received</t>
+  </si>
+  <si>
+    <t>Interest and other finance costs paid</t>
+  </si>
+  <si>
+    <t>Net Income tax paid</t>
+  </si>
+  <si>
+    <t>Net cash used in operating activities</t>
+  </si>
+  <si>
+    <t>Cash flows from investing activities</t>
+  </si>
+  <si>
+    <t>Payment for plant and equipment (non-leased assets)</t>
+  </si>
+  <si>
+    <t>Net cash used in investing activities</t>
+  </si>
+  <si>
+    <t>Cash flows from financing activities</t>
+  </si>
+  <si>
+    <t>Proceeds from borrowings</t>
+  </si>
+  <si>
+    <t>Repayment of borrowings</t>
+  </si>
+  <si>
+    <t>Repayment of lease liabilities right-of-use assets</t>
+  </si>
+  <si>
+    <t>Dividend paid to shareholders</t>
+  </si>
+  <si>
+    <t>Net cash from financing activities</t>
+  </si>
+  <si>
+    <t>Net cash increase (decrease) in cash and cash equivalents</t>
+  </si>
+  <si>
+    <t>Cash and cash equivalents at beginning of the year</t>
+  </si>
+  <si>
+    <t>Cash and cash equivalents at end of the year</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>145841</t>
+  </si>
+  <si>
+    <t>(60,189)</t>
+  </si>
+  <si>
+    <t>(72,304)</t>
+  </si>
+  <si>
+    <t>2173</t>
+  </si>
+  <si>
+    <t>(3,120)</t>
+  </si>
+  <si>
+    <t>12401</t>
+  </si>
+  <si>
+    <t>(67)</t>
+  </si>
+  <si>
+    <t>56000</t>
+  </si>
+  <si>
+    <t>(56,000)</t>
+  </si>
+  <si>
+    <t>(738)</t>
+  </si>
+  <si>
+    <t>(10,538)</t>
+  </si>
+  <si>
+    <t>(11,276)</t>
+  </si>
+  <si>
+    <t>1058</t>
+  </si>
+  <si>
+    <t>128187</t>
+  </si>
+  <si>
+    <t>(50,760)</t>
+  </si>
+  <si>
+    <t>(59,283)</t>
+  </si>
+  <si>
+    <t>1939</t>
+  </si>
+  <si>
+    <t>(3,821)</t>
+  </si>
+  <si>
+    <t>16262</t>
+  </si>
+  <si>
+    <t>(139)</t>
+  </si>
+  <si>
+    <t>65000</t>
+  </si>
+  <si>
+    <t>(70,000)</t>
+  </si>
+  <si>
+    <t>(764)</t>
+  </si>
+  <si>
+    <t>(12,129)</t>
+  </si>
+  <si>
+    <t>(17,893)</t>
+  </si>
+  <si>
+    <t>(1,770)</t>
+  </si>
+  <si>
+    <t>7826</t>
+  </si>
+  <si>
+    <t>Balance at 1 April 2020</t>
+  </si>
+  <si>
+    <t>Profit for the period</t>
+  </si>
+  <si>
+    <t>Dividend to equity holders</t>
+  </si>
+  <si>
+    <t>Balance at 31 March 2021</t>
+  </si>
+  <si>
+    <t>Share</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>32000</t>
+  </si>
+  <si>
+    <t>Retained Earnings</t>
+  </si>
+  <si>
+    <t>33855</t>
+  </si>
+  <si>
+    <t>10538</t>
+  </si>
+  <si>
+    <t>32264</t>
+  </si>
+  <si>
+    <t>14733</t>
+  </si>
+  <si>
+    <t>36458</t>
+  </si>
+  <si>
+    <t>Total Equity</t>
+  </si>
+  <si>
+    <t>65855</t>
+  </si>
+  <si>
+    <t>64264</t>
+  </si>
+  <si>
+    <t>68458</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>Current tax assets</t>
+  </si>
+  <si>
+    <t>Contract asset</t>
+  </si>
+  <si>
+    <t>Total assets</t>
+  </si>
+  <si>
+    <t>Liabilities</t>
+  </si>
+  <si>
+    <t>Contract Liabilities</t>
+  </si>
+  <si>
+    <t>Lease Liabilities - right-of-use assets</t>
+  </si>
+  <si>
+    <t>Provisions</t>
+  </si>
+  <si>
+    <t>Total liabilities</t>
+  </si>
+  <si>
+    <t>Net assets</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>Retained earnings</t>
+  </si>
+  <si>
+    <t>Total equity</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
-    <t>582 10</t>
-  </si>
-  <si>
-    <t>7114</t>
-  </si>
-  <si>
-    <t>3109</t>
-  </si>
-  <si>
-    <t>14421</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>1899</t>
-  </si>
-  <si>
-    <t>(187)</t>
-  </si>
-  <si>
-    <t>19392</t>
-  </si>
-  <si>
-    <t>40007</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>59529</t>
-  </si>
-  <si>
-    <t>54428</t>
-  </si>
-  <si>
-    <t>297</t>
-  </si>
-  <si>
-    <t>(17)</t>
-  </si>
-  <si>
-    <t>280</t>
-  </si>
-  <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>284056</t>
-  </si>
-  <si>
-    <t>72479</t>
-  </si>
-  <si>
-    <t>(58,050)</t>
-  </si>
-  <si>
-    <t>298485</t>
-  </si>
-  <si>
-    <t>6056</t>
-  </si>
-  <si>
-    <t>1350</t>
-  </si>
-  <si>
-    <t>11648</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>(124)</t>
-  </si>
-  <si>
-    <t>14728</t>
-  </si>
-  <si>
-    <t>36169</t>
-  </si>
-  <si>
-    <t>51177</t>
-  </si>
-  <si>
-    <t>47817</t>
-  </si>
-  <si>
-    <t>460</t>
-  </si>
-  <si>
-    <t>(34)</t>
-  </si>
-  <si>
-    <t>426</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>286441</t>
-  </si>
-  <si>
-    <t>72547</t>
-  </si>
-  <si>
-    <t>(58,743)</t>
-  </si>
-  <si>
-    <t>300866</t>
-  </si>
-  <si>
-    <t>(c)Movement in deferred tax balances 2021</t>
-  </si>
-  <si>
-    <t>Doubtful debts</t>
-  </si>
-  <si>
-    <t>Accrued expenses and provisions</t>
-  </si>
-  <si>
-    <t>Leasing adjustments</t>
-  </si>
-  <si>
-    <t>Carried forward tax losses</t>
-  </si>
-  <si>
-    <t>Set off DTL against DTA</t>
-  </si>
-  <si>
-    <t>Net deferred tax (liabilities)</t>
-  </si>
-  <si>
-    <t>Opening balance</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>446</t>
-  </si>
-  <si>
-    <t>554</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>(4,052)</t>
-  </si>
-  <si>
-    <t>(2,961)</t>
-  </si>
-  <si>
-    <t>Recognised in profit or loss</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>(101)</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>(4)</t>
-  </si>
-  <si>
-    <t>(8,104)</t>
-  </si>
-  <si>
-    <t>3619</t>
-  </si>
-  <si>
-    <t>(4,526)</t>
-  </si>
-  <si>
-    <t>Net</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>345</t>
-  </si>
-  <si>
-    <t>612</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>(12,156)</t>
-  </si>
-  <si>
-    <t>(7,487)</t>
-  </si>
-  <si>
-    <t>Deferred tax assets</t>
-  </si>
-  <si>
-    <t>4669</t>
-  </si>
-  <si>
-    <t>(1,050)</t>
-  </si>
-  <si>
-    <t>Deferred tax liabilities</t>
-  </si>
-  <si>
-    <t>1050</t>
-  </si>
-  <si>
-    <t>(11,106)</t>
-  </si>
-  <si>
-    <t>4. Income tax (continued)</t>
-  </si>
-  <si>
-    <t>(c)Movement in deferred tax balances 2022</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>(21,312)</t>
-  </si>
-  <si>
-    <t>14823</t>
-  </si>
-  <si>
-    <t>(6,321)</t>
-  </si>
-  <si>
-    <t>398</t>
-  </si>
-  <si>
-    <t>681</t>
-  </si>
-  <si>
-    <t>(33,468)</t>
-  </si>
-  <si>
-    <t>18442</t>
-  </si>
-  <si>
-    <t>(13,808)</t>
-  </si>
-  <si>
-    <t>19689</t>
-  </si>
-  <si>
-    <t>(1,191)</t>
-  </si>
-  <si>
-    <t>tax liabilities</t>
-  </si>
-  <si>
-    <t>1191</t>
-  </si>
-  <si>
-    <t>(32,277)</t>
-  </si>
-  <si>
-    <t>2.</t>
-  </si>
-  <si>
-    <t>Rental Income</t>
-  </si>
-  <si>
-    <t>Income from contracts with customers</t>
-  </si>
-  <si>
-    <t>Management and maintenance income</t>
-  </si>
-  <si>
-    <t>Additional product and services income</t>
-  </si>
-  <si>
-    <t>End of lease income</t>
-  </si>
-  <si>
-    <t>Other income</t>
-  </si>
-  <si>
-    <t>Total lease income</t>
-  </si>
-  <si>
-    <t>Income tax</t>
-  </si>
-  <si>
-    <t>(a) Amounts recognised in profit or loss</t>
-  </si>
-  <si>
-    <t>tax expense</t>
-  </si>
-  <si>
-    <t>Current year</t>
-  </si>
-  <si>
-    <t>Adjustment for prior years</t>
-  </si>
-  <si>
-    <t>Deferred tax expense</t>
-  </si>
-  <si>
-    <t>Deferred tax origination and utilisation of carried forward tax losses</t>
-  </si>
-  <si>
-    <t>Deferred tax origination and reversal of temporary differences</t>
-  </si>
-  <si>
-    <t>(14,823)</t>
-  </si>
-  <si>
-    <t>21171</t>
-  </si>
-  <si>
-    <t>6348</t>
-  </si>
-  <si>
-    <t>(3,619)</t>
-  </si>
-  <si>
-    <t>8160</t>
-  </si>
-  <si>
-    <t>4534</t>
-  </si>
-  <si>
-    <t>21080</t>
-  </si>
-  <si>
-    <t>6324</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>15072</t>
-  </si>
-  <si>
-    <t>4522</t>
-  </si>
-  <si>
-    <t>Revenue recognition (continued)</t>
-  </si>
-  <si>
-    <t>(ii) Revenue from contracts with customers (continued)</t>
-  </si>
-  <si>
-    <t>Fleet management income and management fees are brought to over time on a straight-line</t>
-  </si>
-  <si>
-    <t>basis over the term of the lease. Maintenance income is recognised over time as services are provided.</t>
-  </si>
-  <si>
-    <t>The of revenue to recognise is assessed based on the direct of the value to the</t>
-  </si>
-  <si>
-    <t>customer of services transferred to date, relative to the remaining goods or services promised under the</t>
-  </si>
-  <si>
-    <t>maintenance</t>
-  </si>
-  <si>
-    <t>Additional products or services</t>
-  </si>
-  <si>
-    <t>from the sale of additional products and services is recognised as the goods are delivered and have been accepted by customers and services are provided. Generally will be recognized using an input measure.</t>
-  </si>
-  <si>
-    <t>Income earned after the expiry of a lease is recognised when it is received or when the performance obligation</t>
-  </si>
-  <si>
-    <t>has been satisfied and the right to payment is established. For income from used vehicle sales, is</t>
-  </si>
-  <si>
-    <t>recognised when the customer obtains control of the vehicle. Generally will be recognized using an</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>Other income is recognised when the performance obligation has been satisfied and the right to payment is established. Generally will be recognized using an input measure, typically costs incurred.</t>
-  </si>
-  <si>
-    <t>(ii) Interest income</t>
-  </si>
-  <si>
-    <t>Interest income is recognised as interest using the effective interest method. This is a method of calculating the amortized cost of a financial asset and allocating the interest income over the relevant period using the effective interest rate, which is the rate that exactly discounts estimated future cash receipts through the expected life of the financial asset to the net carrying amount of the financial asset.</t>
-  </si>
-  <si>
-    <t>Finance costs comprise interest expense on borrowings and impairment losses recognised on financial assets (other than</t>
-  </si>
-  <si>
-    <t>trade receivables). Interest income or expense is recognised using the effective interest method.</t>
-  </si>
-  <si>
-    <t>Revenue, expenses and assets are recognised net of the amount of GST, except where the amount of GST incurred is not</t>
-  </si>
-  <si>
-    <t>recoverable from the Australian Tax Office. In these the GST is recognised as part of the cost of acquisition of</t>
-  </si>
-  <si>
-    <t>the asset or as part of an item of the expense. Receivables and payables in the Sheet are inclusive of GST</t>
-  </si>
-  <si>
-    <t>A number of new standards are effective for annual periods beginning after 1 April 2021, including AASB 1060 General</t>
-  </si>
-  <si>
-    <t>Purpose Financial Statements - Simplified Disclosures for For-Profit and Not-for Profit Tier 2 Entities (AASB 1060), and</t>
-  </si>
-  <si>
-    <t>earlier application is permitted; the Company has not early adopted the new or amended standards in preparing these financial statements, and the impact is assessed by the Company to be immaterial.</t>
-  </si>
-  <si>
-    <t>(h) Impairment (continued)</t>
-  </si>
-  <si>
-    <t>(i) Non-financial assets</t>
-  </si>
-  <si>
-    <t>At each reporting date, the Company reviews the carrying amounts of its non- financial assets (other than and deferred tax assets) to determine whether there is any indication of impairment. If any such indication exists, then the</t>
-  </si>
-  <si>
-    <t>asset's recoverable amount is estimated.</t>
-  </si>
-  <si>
-    <t>(i) Employee benefits</t>
-  </si>
-  <si>
-    <t>(i) Short-term employee benefits</t>
-  </si>
-  <si>
-    <t>Short-term employee benefit obligations are expensed as the related service is provided. A liability is recognised for the</t>
-  </si>
-  <si>
-    <t>amount expected to be paid under short-term cash bonus or profit-sharing plans if the Company has a present legalor</t>
-  </si>
-  <si>
-    <t>constructive obligation to pay this amount as a result of past service provided by the employee and the obligation can be</t>
-  </si>
-  <si>
-    <t>estimated reliably.</t>
-  </si>
-  <si>
-    <t>(ii) Defined contribution plans</t>
-  </si>
-  <si>
-    <t>A defined contribution plan is a post-employment benefit plan under which an entity pays fixed contributions into a separate</t>
-  </si>
-  <si>
-    <t>entity and will have no legal or constructive obligation to pay further amounts. Obligations for contributions to defined</t>
-  </si>
-  <si>
-    <t>contribution plans are recognised as an employee benefit expense in profit or loss in the periods during which services are rendered by employees.</t>
-  </si>
-  <si>
-    <t>(ii) Long-term employee benefits</t>
-  </si>
-  <si>
-    <t>The Company's net obligation in respect of long- term employee benefits is the amount of future benefit that employees</t>
-  </si>
-  <si>
-    <t>have earned in return for their service in the current and prior periods. That benefit is discounted to determine its present</t>
-  </si>
-  <si>
-    <t>value.</t>
-  </si>
-  <si>
-    <t>() Income tax</t>
-  </si>
-  <si>
-    <t>Income tax expense comprises current and deferred tax. It is recognised in profit or loss except to the extent that it relates</t>
-  </si>
-  <si>
-    <t>toi items recognised directly in equity or in other comprehensive income.</t>
-  </si>
-  <si>
-    <t>i) Current tax</t>
-  </si>
-  <si>
-    <t>Current tax comprises the expected tax payable or on the taxable income or loss for the year and any adjustment</t>
-  </si>
-  <si>
-    <t>to tax payable or receivable in respect of previous years. It is measured using tax rates enacted or substantively enacted at</t>
-  </si>
-  <si>
-    <t>the reporting date. Current tax also includes any tax liability arising from dividends.</t>
-  </si>
-  <si>
-    <t>(i) Deferred tax</t>
-  </si>
-  <si>
-    <t>Deferred tax is recognised in respect of temporary differences between the carrying of assets and liabilities for</t>
-  </si>
-  <si>
-    <t>financial reporting purposes and the amounts used for taxation purposes. Deferred tax is not recognised for temporary</t>
-  </si>
-  <si>
-    <t>differences on the initial recognition of assets or liabilities in a transaction that is not a business and that</t>
-  </si>
-  <si>
-    <t>affects neither accounting nor taxable profit or loss.</t>
-  </si>
-  <si>
-    <t>Deferred tax is measured at the tax rates that are expected to be applied to temporary differences when they reverse,</t>
-  </si>
-  <si>
-    <t>based on the laws that have been enacted or substantively enacted at the reporting date.</t>
-  </si>
-  <si>
-    <t>The measurement of deferred tax reflects the tax consequences that would follow the in which the Company expects, at the reporting date, to or settle the carrying of its assets and liabilities.</t>
-  </si>
-  <si>
-    <t>A deferred tax asset is recognised for unused tax losses, tax credits and temporary differences, to the extent that iti is probable that future taxable profits will be available against which they can be utilised. Deferred tax assets are reviewed</t>
-  </si>
-  <si>
-    <t>at each reporting date and are reduced to the extent that it is no longer probable that the related tax benefit will be</t>
-  </si>
-  <si>
-    <t>realised.</t>
-  </si>
-  <si>
-    <t>1. Significant accounting policies (continued)</t>
-  </si>
-  <si>
-    <t>(d) Presentation of statement of financial position on a liquidity basis</t>
-  </si>
-  <si>
-    <t>The statement of financial position has been presented on a liquidity basis as this presentation provides information that is more reliable and relevant to users in assessing the financial position of a leasing and fleet business where the of</t>
-  </si>
-  <si>
-    <t>PP&amp;E assets is directly linked to underlying lease terms. The notes to the financial statements disclose the amount expected</t>
-  </si>
-  <si>
-    <t>tobe recovered or settled after more than twelve months for each asset and liability line item that amounts</t>
-  </si>
-  <si>
-    <t>expected to be recovered or settled no more than twelve months after the reporting period, and more than twelve months</t>
-  </si>
-  <si>
-    <t>after the reporting period.</t>
-  </si>
-  <si>
-    <t>(e) Inventories</t>
-  </si>
-  <si>
-    <t>End-of-term operating lease assets are stated at the lower of cost and net realisable value as determined by reference to the subsequent selling value of vehicles after 31 March 2022. Net realisable value is the estimated selling price in the ordinary course of business less, selling expenses.</t>
-  </si>
-  <si>
-    <t>(f) Property, plant and equipment</t>
-  </si>
-  <si>
-    <t>(i) Recognition, measurement, and disposal</t>
-  </si>
-  <si>
-    <t>Items of property, plant and equipment are measured at cost less accumulated depreciation and accumulated impairment</t>
-  </si>
-  <si>
-    <t>losses. Cost includes expenditure that is directly attributable to the acquisition of the asset. Purchased software that is</t>
-  </si>
-  <si>
-    <t>integral to the functionality of the related equipment is capitalised as part of that equipment. When parts of an item of</t>
-  </si>
-  <si>
-    <t>property, plant and equipment have different useful lives, they are accounted for as separate items (major components) of</t>
-  </si>
-  <si>
-    <t>property, plant and equipment. The gains and losses on disposal of an item of property, plant and equipment except the</t>
-  </si>
-  <si>
-    <t>motor vehicle for lease to customers are determined by comparing the proceeds from disposal with the carrying amount of</t>
-  </si>
-  <si>
-    <t>property, plant and equipment and are recognised net within other income / other expenses in profit or loss. The motor</t>
-  </si>
-  <si>
-    <t>vehicles for lease to customers are transferred from property, plant and equipment to inventory at their carrying amount</t>
-  </si>
-  <si>
-    <t>when they cease to be rented and become held-for-sale. The proceeds from disposals of motor vehicles which were leased</t>
-  </si>
-  <si>
-    <t>to customers are recognised as reve</t>
-  </si>
-  <si>
-    <t>(ii) Subsequent costs</t>
-  </si>
-  <si>
-    <t>Subsequent expenditure is capitalised only when it is probable that the future economic benefits with the expenditure will flow to the Company.</t>
-  </si>
-  <si>
-    <t>(ili) Depreciation and impairment</t>
-  </si>
-  <si>
-    <t>Depreciation is calculated to write off the cost of property, plant and equipment less their estimated residual value using</t>
-  </si>
-  <si>
-    <t>the straight-line basis over their estimated useful lives, and is generally recognised in profit and loss. Motor vehicles, which</t>
-  </si>
-  <si>
-    <t>are leased to customers under operating lease contracts, are depreciated at a rate that will reduce the cost price to the</t>
-  </si>
-  <si>
-    <t>estimated residual value by the end of the lease term. Residual value is assessed for impairment and in the event ofa</t>
-  </si>
-  <si>
-    <t>shortfall, an impairment charge is recognised in the current period.</t>
-  </si>
-  <si>
-    <t>The following useful lives are used in the of depreciation:</t>
-  </si>
-  <si>
-    <t>Plant and equipment: 3 15 years</t>
-  </si>
-  <si>
-    <t>Furniture and fittings: 3 15 years</t>
-  </si>
-  <si>
-    <t>Motor vehicles: 3 8 years</t>
-  </si>
-  <si>
-    <t>Depreciation methods, useful lives and residual values are reviewed at each reporting date and adjusted if appropriate.</t>
-  </si>
-  <si>
-    <t>(g) Financial instruments</t>
-  </si>
-  <si>
-    <t>AASB 9 Financial Instruments sets out requirements for the recognition, measurement, impairment and derecognition of</t>
-  </si>
-  <si>
-    <t>financial instruments and general hedge accounting of financial assets of the Company includes cash and cash equivalents</t>
-  </si>
-  <si>
-    <t>Summit Auto Lease Australia Pty Limited</t>
-  </si>
-  <si>
-    <t>Statement of Cash Flows</t>
-  </si>
-  <si>
-    <t>For the year ended 31 March 2022</t>
-  </si>
-  <si>
-    <t>Cash flows from operating activities</t>
-  </si>
-  <si>
-    <t>Receipts from customers</t>
-  </si>
-  <si>
-    <t>Payments to employees and suppliers</t>
-  </si>
-  <si>
-    <t>Purchase of plant and equipment leased to external parties pursuant to operating lease</t>
-  </si>
-  <si>
-    <t>Interest received</t>
-  </si>
-  <si>
-    <t>Interest and other finance costs paid</t>
-  </si>
-  <si>
-    <t>Net Income tax paid</t>
-  </si>
-  <si>
-    <t>Net cash used in operating</t>
-  </si>
-  <si>
-    <t>Cash flows from investing activities</t>
-  </si>
-  <si>
-    <t>Payment for plant and equipment (non-leased assets)</t>
-  </si>
-  <si>
-    <t>Net cash used in investing activities</t>
-  </si>
-  <si>
-    <t>Cash flows from financing activities</t>
-  </si>
-  <si>
-    <t>Proceeds from borrowings</t>
-  </si>
-  <si>
-    <t>Repayment of borrowings</t>
-  </si>
-  <si>
-    <t>Repayment of lease liabilities right-of-use assets</t>
-  </si>
-  <si>
-    <t>Dividend paid to shareholders</t>
-  </si>
-  <si>
-    <t>Net cash from financing activities</t>
-  </si>
-  <si>
-    <t>Net cash increase (decrease) in cash and cash equivalents</t>
-  </si>
-  <si>
-    <t>Cash and cash equivalents at beginning of the year</t>
-  </si>
-  <si>
-    <t>Cash and cash equivalents at end of the year</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>145841</t>
-  </si>
-  <si>
-    <t>(60,189)</t>
-  </si>
-  <si>
-    <t>(72,304)</t>
-  </si>
-  <si>
-    <t>2173</t>
-  </si>
-  <si>
-    <t>(3,120)</t>
-  </si>
-  <si>
-    <t>12401</t>
-  </si>
-  <si>
-    <t>(67)</t>
-  </si>
-  <si>
-    <t>56000</t>
-  </si>
-  <si>
-    <t>(56,000)</t>
-  </si>
-  <si>
-    <t>(738)</t>
-  </si>
-  <si>
-    <t>(10,538)</t>
-  </si>
-  <si>
-    <t>(11,276)</t>
-  </si>
-  <si>
-    <t>1058</t>
-  </si>
-  <si>
-    <t>128187</t>
-  </si>
-  <si>
-    <t>(50,760)</t>
-  </si>
-  <si>
-    <t>(59,283)</t>
-  </si>
-  <si>
-    <t>1939</t>
-  </si>
-  <si>
-    <t>(3,821)</t>
-  </si>
-  <si>
-    <t>16262</t>
-  </si>
-  <si>
-    <t>(139)</t>
-  </si>
-  <si>
-    <t>65000</t>
-  </si>
-  <si>
-    <t>(70,000)</t>
-  </si>
-  <si>
-    <t>(764)</t>
-  </si>
-  <si>
-    <t>(12,129)</t>
-  </si>
-  <si>
-    <t>(17,893)</t>
-  </si>
-  <si>
-    <t>(1,770)</t>
-  </si>
-  <si>
-    <t>7826</t>
-  </si>
-  <si>
-    <t>Balance at 1 April 2020</t>
-  </si>
-  <si>
-    <t>Profit for the period</t>
-  </si>
-  <si>
-    <t>Dividend to equity holders</t>
-  </si>
-  <si>
-    <t>Balance at 31 March 2021</t>
-  </si>
-  <si>
-    <t>Share</t>
-  </si>
-  <si>
-    <t>Capital</t>
-  </si>
-  <si>
-    <t>32000</t>
-  </si>
-  <si>
-    <t>Retained Earnings</t>
-  </si>
-  <si>
-    <t>33855</t>
-  </si>
-  <si>
-    <t>10538</t>
-  </si>
-  <si>
-    <t>32264</t>
-  </si>
-  <si>
-    <t>14733</t>
-  </si>
-  <si>
-    <t>36458</t>
-  </si>
-  <si>
-    <t>Total Equity</t>
-  </si>
-  <si>
-    <t>65855</t>
-  </si>
-  <si>
-    <t>64264</t>
-  </si>
-  <si>
-    <t>68458</t>
-  </si>
-  <si>
-    <t>Assets</t>
-  </si>
-  <si>
-    <t>Current tax assets</t>
-  </si>
-  <si>
-    <t>Contract asset</t>
-  </si>
-  <si>
-    <t>Totalassets</t>
-  </si>
-  <si>
-    <t>Liabilities</t>
-  </si>
-  <si>
-    <t>Lease right-of-use assets</t>
-  </si>
-  <si>
-    <t>Provisions</t>
-  </si>
-  <si>
-    <t>Total liabilities</t>
-  </si>
-  <si>
-    <t>Net assets</t>
-  </si>
-  <si>
-    <t>Equity</t>
-  </si>
-  <si>
-    <t>Retained earnings</t>
-  </si>
-  <si>
-    <t>Total equity</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -1764,6 +1752,9 @@
   </si>
   <si>
     <t>12</t>
+  </si>
+  <si>
+    <t>Revenue</t>
   </si>
   <si>
     <t>Sale of used vehicles</t>
@@ -2317,10 +2308,10 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2331,16 +2322,16 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2354,13 +2345,13 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2396,16 +2387,16 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2419,13 +2410,13 @@
         <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
         <v>27</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2479,12 +2470,12 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="B3">
         <v>2022</v>
@@ -2495,7 +2486,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4">
         <v>2232</v>
@@ -2506,7 +2497,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B5">
         <v>126</v>
@@ -2517,7 +2508,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6">
         <v>2358</v>
@@ -2528,12 +2519,12 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="B8">
         <v>2022</v>
@@ -2549,7 +2540,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="B10">
         <v>75</v>
@@ -2560,7 +2551,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B11">
         <v>2022</v>
@@ -2571,7 +2562,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B12">
         <v>258</v>
@@ -2582,7 +2573,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B13">
         <v>146</v>
@@ -2593,7 +2584,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B14">
         <v>26</v>
@@ -2604,7 +2595,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B15">
         <v>430</v>
@@ -2636,7 +2627,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2">
         <v>2021</v>
@@ -2644,12 +2635,12 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B4">
         <v>3502</v>
@@ -2657,7 +2648,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2692,114 +2683,114 @@
     </row>
     <row r="2" spans="1:5">
       <c r="B2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" t="s">
         <v>158</v>
-      </c>
-      <c r="E3" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="C12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2828,17 +2819,17 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B4">
         <v>2022</v>
@@ -2849,12 +2840,12 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B6">
         <v>21332</v>
@@ -2865,7 +2856,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B7">
         <v>3303</v>
@@ -2884,17 +2875,17 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B11">
         <v>2022</v>
@@ -2905,12 +2896,12 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B13">
         <v>16000</v>
@@ -2918,7 +2909,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B14">
         <v>17000</v>
@@ -2929,7 +2920,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B15">
         <v>7500</v>
@@ -2940,7 +2931,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B16">
         <v>15500</v>
@@ -2951,7 +2942,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B17">
         <v>4500</v>
@@ -2970,12 +2961,12 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B20">
         <v>2022</v>
@@ -2986,12 +2977,12 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B22">
         <v>19000</v>
@@ -3002,7 +2993,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B23">
         <v>34500</v>
@@ -3013,7 +3004,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B24">
         <v>22000</v>
@@ -3024,7 +3015,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B25">
         <v>7000</v>
@@ -3035,7 +3026,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B26">
         <v>7000</v>
@@ -3054,7 +3045,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B28">
         <v>150000</v>
@@ -3101,110 +3092,113 @@
     </row>
     <row r="2" spans="1:7">
       <c r="B2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F2" t="s">
         <v>194</v>
       </c>
-      <c r="F2" t="s">
-        <v>196</v>
-      </c>
       <c r="G2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" t="s">
         <v>195</v>
       </c>
-      <c r="F4" t="s">
-        <v>197</v>
-      </c>
       <c r="G4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B6" t="s">
-        <v>184</v>
+        <v>181</v>
+      </c>
+      <c r="C6" t="s">
+        <v>186</v>
       </c>
       <c r="F6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" t="s">
         <v>193</v>
       </c>
-      <c r="E7" t="s">
-        <v>195</v>
-      </c>
       <c r="F7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -3233,166 +3227,166 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C10" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C12" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C13" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B16" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="C16" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B17" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C17" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -3494,365 +3488,365 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>237</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C6" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D6" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C10" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D10" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C11" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D11" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C12" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D12" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C13" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D13" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C14" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D14" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="C15" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D15" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C17" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D17" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C18" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D18" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C19" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D19" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C22" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D22" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C23" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D23" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C26" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D26" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C27" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D27" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C28" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D28" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C31" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D31" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B35" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C35" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D35" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
+        <v>257</v>
+      </c>
+      <c r="B37" t="s">
         <v>262</v>
       </c>
-      <c r="B37" t="s">
-        <v>267</v>
-      </c>
       <c r="C37" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D37" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B38" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="C38" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D38" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C39" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D39" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B40" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C40" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D40" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -3890,160 +3884,160 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B2" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C2" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D2" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F2" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B3" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C3" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D3" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E3" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B4" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C4" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D4" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E4" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B5" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C5" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D5" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E5" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C6" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D6" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E6" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C8" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D8" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E8" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C9" t="s">
+        <v>322</v>
+      </c>
+      <c r="D9" t="s">
+        <v>329</v>
+      </c>
+      <c r="E9" t="s">
+        <v>331</v>
+      </c>
+      <c r="F9" t="s">
         <v>328</v>
-      </c>
-      <c r="D9" t="s">
-        <v>335</v>
-      </c>
-      <c r="E9" t="s">
-        <v>337</v>
-      </c>
-      <c r="F9" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="E10" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F10" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E11" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F11" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -4081,173 +4075,173 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B4" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C4" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D4" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E4" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F4" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B5" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C5" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D5" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E5" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B6" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C6" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D6" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E6" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="E7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D8" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E8" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B9" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C9" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D9" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="F9" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B10" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C10" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D10" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="E10" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C11" t="s">
+        <v>343</v>
+      </c>
+      <c r="D11" t="s">
+        <v>348</v>
+      </c>
+      <c r="E11" t="s">
         <v>349</v>
       </c>
-      <c r="D11" t="s">
-        <v>354</v>
-      </c>
-      <c r="E11" t="s">
-        <v>355</v>
-      </c>
       <c r="F11" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="E12" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="F12" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B13" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E13" t="s">
+        <v>347</v>
+      </c>
+      <c r="F13" t="s">
         <v>353</v>
-      </c>
-      <c r="F13" t="s">
-        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -4291,192 +4285,192 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="F8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -4505,12 +4499,12 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="B3">
         <v>2022</v>
@@ -4521,7 +4515,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B4">
         <v>56505</v>
@@ -4532,12 +4526,12 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B6">
         <v>10515</v>
@@ -4548,7 +4542,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B7">
         <v>11929</v>
@@ -4559,7 +4553,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B8">
         <v>1356</v>
@@ -4570,7 +4564,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B9">
         <v>546</v>
@@ -4589,7 +4583,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B11">
         <v>80851</v>
@@ -4624,76 +4618,76 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B10" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C10" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B11" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C11" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C12" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -4719,50 +4713,50 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B3" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B4" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B5" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -4785,137 +4779,137 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -4938,192 +4932,192 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -5146,187 +5140,187 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -5358,230 +5352,230 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="C7" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="D7" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C8" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="D8" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C9" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="D9" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C10" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="D10" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C11" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="D11" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="C13" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="D13" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C15" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="D15" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C16" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="D16" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="C18" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D18" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="C19" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="D19" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C20" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="D20" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C21" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="D21" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="C22" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="D22" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="C23" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="D23" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="C24" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D24" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B25" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="C25" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D25" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -5613,123 +5607,123 @@
     </row>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="C2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D2" t="s">
         <v>543</v>
-      </c>
-      <c r="D2" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>530</v>
+      </c>
+      <c r="B5" t="s">
         <v>536</v>
       </c>
-      <c r="B5" t="s">
-        <v>542</v>
-      </c>
       <c r="C5" t="s">
+        <v>538</v>
+      </c>
+      <c r="D5" t="s">
         <v>544</v>
-      </c>
-      <c r="D5" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C6" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="D6" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="C7" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="D7" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="B8" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="C8" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="D8" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="C9" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="D9" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C10" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="D10" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="C11" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="D11" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
+        <v>536</v>
+      </c>
+      <c r="C12" t="s">
         <v>542</v>
       </c>
-      <c r="C12" t="s">
-        <v>548</v>
-      </c>
       <c r="D12" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -5761,10 +5755,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C2">
         <v>2022</v>
@@ -5775,15 +5769,12 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>239</v>
-      </c>
-      <c r="B4" t="s">
-        <v>508</v>
+        <v>236</v>
       </c>
       <c r="C4">
         <v>7114</v>
@@ -5794,10 +5785,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>241</v>
-      </c>
-      <c r="B5" t="s">
-        <v>322</v>
+        <v>239</v>
       </c>
       <c r="C5">
         <v>59529</v>
@@ -5808,10 +5796,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B6" t="s">
-        <v>268</v>
+        <v>560</v>
       </c>
       <c r="C6">
         <v>233</v>
@@ -5822,15 +5810,15 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B8" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C8">
         <v>18442</v>
@@ -5841,10 +5829,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B9" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C9">
         <v>8810</v>
@@ -5855,10 +5843,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B10" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C10">
         <v>182268</v>
@@ -5869,10 +5857,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C11">
         <v>1127</v>
@@ -5883,7 +5871,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="C12">
         <v>277523</v>
@@ -5894,15 +5882,15 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C14">
         <v>24635</v>
@@ -5913,10 +5901,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C15">
         <v>150000</v>
@@ -5927,10 +5915,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="B16" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C16">
         <v>91</v>
@@ -5941,10 +5929,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B17" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C17">
         <v>1270</v>
@@ -5955,10 +5943,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B18" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C18">
         <v>792</v>
@@ -5969,10 +5957,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B19" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C19">
         <v>32277</v>
@@ -5983,7 +5971,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C20">
         <v>209065</v>
@@ -5994,7 +5982,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C21">
         <v>68458</v>
@@ -6005,15 +5993,15 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B23" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C23">
         <v>32000</v>
@@ -6024,7 +6012,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C24">
         <v>36458</v>
@@ -6035,7 +6023,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C25">
         <v>68458</v>
@@ -6073,181 +6061,184 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>570</v>
+      </c>
       <c r="B3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C3" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D3" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C4" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D4" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C5" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D5" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C6" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D6" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C7" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D7" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C8" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D8" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C9" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D9" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B10" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="C10" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D10" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C11" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D11" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C12" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D12" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C13" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D13" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B14" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C14" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D14" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C16" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="D16" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C18" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="D18" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
   </sheetData>
@@ -6270,7 +6261,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -6297,232 +6288,237 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="C4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="B24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -6607,63 +6603,66 @@
     </row>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>52</v>
       </c>
-      <c r="B3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -6692,17 +6691,17 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="B4">
         <v>2022</v>
@@ -6713,7 +6712,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5">
         <v>60</v>
@@ -6724,7 +6723,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6">
         <v>34</v>
@@ -6735,15 +6734,12 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -6754,12 +6750,12 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="B10">
         <v>2022</v>
@@ -6770,7 +6766,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C11">
         <v>22</v>
@@ -6783,7 +6779,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B13">
         <v>2022</v>
@@ -6794,7 +6790,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B14">
         <v>11500</v>
@@ -6829,90 +6825,90 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -6941,7 +6937,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B2">
         <v>2022</v>
@@ -6952,12 +6948,12 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B4">
         <v>32000</v>
@@ -6968,7 +6964,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B5">
         <v>2022</v>
@@ -6979,7 +6975,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B6">
         <v>32000</v>
@@ -6990,12 +6986,12 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B8">
         <v>32000</v>

--- a/EXCEL_OUPUT/2022.xlsx
+++ b/EXCEL_OUPUT/2022.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="611">
   <si>
     <t>Responsibilities of the</t>
   </si>
@@ -86,7 +86,7 @@
     <t>Financial Report that</t>
   </si>
   <si>
-    <t>necessary internal control to enable the preparation</t>
+    <t>necessary internal</t>
   </si>
   <si>
     <t>basis of accounting</t>
@@ -104,6 +104,9 @@
     <t>Disclosure Requirements and</t>
   </si>
   <si>
+    <t>control to enable the preparation</t>
+  </si>
+  <si>
     <t>is appropriate. This includes disclosing, as applicable,</t>
   </si>
   <si>
@@ -173,7 +176,7 @@
     <t>March 2022;</t>
   </si>
   <si>
-    <t>comprehensive income, Statement of</t>
+    <t>comprehensive income,</t>
   </si>
   <si>
     <t>changes in equity, and Statement of cash</t>
@@ -188,13 +191,13 @@
     <t>Directors' Declaration.</t>
   </si>
   <si>
+    <t>Statement of</t>
+  </si>
+  <si>
     <t>Basis for opinion</t>
   </si>
   <si>
-    <t>Reconciliation</t>
-  </si>
-  <si>
-    <t>Reconciliation of lease liabilities at the beginning and end of the current financial year are set out below:</t>
+    <t>of lease liabilities at the beginning and end of the current financial year are set out below:</t>
   </si>
   <si>
     <t>Balance at 1 April 2021</t>
@@ -215,169 +218,169 @@
     <t>17.</t>
   </si>
   <si>
+    <t>In of AUD</t>
+  </si>
+  <si>
+    <t>expected to be settled within 12 months</t>
+  </si>
+  <si>
+    <t>Amount expected to be settled after more than 12 months</t>
+  </si>
+  <si>
+    <t>Reconciliation at the beginning and end of the current and previous financial year are set out below</t>
+  </si>
+  <si>
+    <t>Opening Balance</t>
+  </si>
+  <si>
+    <t>Transfer to trade receivables included in opening balance</t>
+  </si>
+  <si>
+    <t>Closing balance</t>
+  </si>
+  <si>
+    <t>18.</t>
+  </si>
+  <si>
+    <t>In thousands of AUD</t>
+  </si>
+  <si>
+    <t>Amount expected to be settled within 12 months</t>
+  </si>
+  <si>
+    <t>Transfer to included in opening balance</t>
+  </si>
+  <si>
+    <t>Increase in cash received excluding amounts recognised as during the year</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>8810</t>
+  </si>
+  <si>
+    <t>6677</t>
+  </si>
+  <si>
+    <t>(6,677)</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>(73)</t>
+  </si>
+  <si>
+    <t>1771</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>(734)</t>
+  </si>
+  <si>
+    <t>1270</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>6255</t>
+  </si>
+  <si>
+    <t>(6,255)</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>(177)</t>
+  </si>
+  <si>
+    <t>Depreciation expense</t>
+  </si>
+  <si>
+    <t>Office Other Premises</t>
+  </si>
+  <si>
+    <t>1146</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>(498)</t>
+  </si>
+  <si>
+    <t>817</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>445</t>
+  </si>
+  <si>
+    <t>(138)</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>1591</t>
+  </si>
+  <si>
+    <t>(636)</t>
+  </si>
+  <si>
+    <t>1127</t>
+  </si>
+  <si>
+    <t>Related Parties (continued)</t>
+  </si>
+  <si>
+    <t>d. Payable to related parties (Note 9.)</t>
+  </si>
+  <si>
+    <t>Sumitomo Mitsui Auto Service Co., Ltd</t>
+  </si>
+  <si>
+    <t>Sumitomo Corporation</t>
+  </si>
+  <si>
+    <t>Sumitomo Australia Pty Limited</t>
+  </si>
+  <si>
+    <t>Total payables</t>
+  </si>
+  <si>
+    <t>e. Receivable from related entities (Note 6.)</t>
+  </si>
+  <si>
+    <t>f.Borrowings from related parties (Note 10.)</t>
+  </si>
+  <si>
     <t>Int thousands of AUD</t>
   </si>
   <si>
-    <t>Amount expected to be settled within 12 months</t>
-  </si>
-  <si>
-    <t>Amount expected to be settled after more than 12 months</t>
-  </si>
-  <si>
-    <t>Reconciliation at the beginning and end of the current and previous financial year are set out below</t>
-  </si>
-  <si>
-    <t>Opening Balance</t>
-  </si>
-  <si>
-    <t>Transfer to trade receivables included in opening balance</t>
-  </si>
-  <si>
-    <t>Closing balance</t>
-  </si>
-  <si>
-    <t>18.</t>
-  </si>
-  <si>
-    <t>Inthousands ofAUD</t>
-  </si>
-  <si>
-    <t>Transfer to revenue = included in opening balance</t>
-  </si>
-  <si>
-    <t>Increase in cash received excluding amounts recognised as revenue during the year</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>8810</t>
-  </si>
-  <si>
-    <t>6677</t>
-  </si>
-  <si>
-    <t>(6,677)</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>(73)</t>
-  </si>
-  <si>
-    <t>1771</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>(734)</t>
-  </si>
-  <si>
-    <t>1270</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>6255</t>
-  </si>
-  <si>
-    <t>(6,255)</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>(177)</t>
-  </si>
-  <si>
-    <t>Depreciation expense</t>
-  </si>
-  <si>
-    <t>Office Other Premises</t>
-  </si>
-  <si>
-    <t>1146</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>(498)</t>
-  </si>
-  <si>
-    <t>817</t>
-  </si>
-  <si>
-    <t>Equipment</t>
-  </si>
-  <si>
-    <t>445</t>
-  </si>
-  <si>
-    <t>(138)</t>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>1591</t>
-  </si>
-  <si>
-    <t>(636)</t>
-  </si>
-  <si>
-    <t>1127</t>
-  </si>
-  <si>
-    <t>Related Parties (continued)</t>
-  </si>
-  <si>
-    <t>d. Payable to related parties (Note 9.)</t>
-  </si>
-  <si>
-    <t>In thousands of AUD</t>
-  </si>
-  <si>
-    <t>Sumitomo Mitsui Auto Service Co., Ltd</t>
-  </si>
-  <si>
-    <t>Sumitomo Corporation</t>
-  </si>
-  <si>
-    <t>Sumitomo Australia Pty Limited</t>
-  </si>
-  <si>
-    <t>Total payables</t>
-  </si>
-  <si>
-    <t>e. Receivable from related entities (Note 6.)</t>
-  </si>
-  <si>
-    <t>Ini thousands of AUD</t>
-  </si>
-  <si>
-    <t>f.B Borrowings from related parties (Note 10.)</t>
-  </si>
-  <si>
     <t>In AUD</t>
   </si>
   <si>
     <t>Audit Services</t>
   </si>
   <si>
-    <t>Audit of financial report</t>
+    <t>Audit of financial rep port</t>
   </si>
   <si>
     <t>Other services</t>
@@ -389,6 +392,9 @@
     <t>Right-of-use assets</t>
   </si>
   <si>
+    <t>Right-of-use assets - at cost</t>
+  </si>
+  <si>
     <t>Less Accumulated depreciation</t>
   </si>
   <si>
@@ -434,366 +440,375 @@
     <t>On Issue at 31 March</t>
   </si>
   <si>
-    <t>b. Transactions with key management personnel</t>
+    <t>b. with key management personnel</t>
+  </si>
+  <si>
+    <t>Short-term employee benefits</t>
+  </si>
+  <si>
+    <t>Post-employment benefits</t>
+  </si>
+  <si>
+    <t>Compensation</t>
+  </si>
+  <si>
+    <t>C. Other related party transactions</t>
+  </si>
+  <si>
+    <t>Service fees</t>
+  </si>
+  <si>
+    <t>Mitsui Auto Service Co., Ltd</t>
+  </si>
+  <si>
+    <t>Fees</t>
+  </si>
+  <si>
+    <t>Total guarantee fees</t>
+  </si>
+  <si>
+    <t>Dividend franking 2022</t>
+  </si>
+  <si>
+    <t>Amount of franking credits available to shareholders of the Company for subsequent</t>
+  </si>
+  <si>
+    <t>financial years</t>
+  </si>
+  <si>
+    <t>Charge/credit to profit and loss</t>
+  </si>
+  <si>
+    <t>Additional provisions</t>
+  </si>
+  <si>
+    <t>Usage during the year</t>
+  </si>
+  <si>
+    <t>Unlikely to be recovered in the</t>
+  </si>
+  <si>
+    <t>next 12 months</t>
+  </si>
+  <si>
+    <t>Likely to be recovered in the next</t>
+  </si>
+  <si>
+    <t>12 months</t>
+  </si>
+  <si>
+    <t>Employee benefits</t>
+  </si>
+  <si>
+    <t>758</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>782</t>
+  </si>
+  <si>
+    <t>483</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>Makegood provision</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>768</t>
+  </si>
+  <si>
+    <t>792</t>
+  </si>
+  <si>
+    <t>493</t>
+  </si>
+  <si>
+    <t>Trade and other payables</t>
+  </si>
+  <si>
+    <t>Likely to be settled in the next 12 months</t>
+  </si>
+  <si>
+    <t>Unsecured liabilities</t>
+  </si>
+  <si>
+    <t>Trade payables</t>
+  </si>
+  <si>
+    <t>Other payables</t>
+  </si>
+  <si>
+    <t>Borrowings</t>
+  </si>
+  <si>
+    <t>Secured liabilities</t>
+  </si>
+  <si>
+    <t>The Bank of Tokyo Mitsubishi (UFJ) Limited</t>
+  </si>
+  <si>
+    <t>Mizuho Corporate Bank Limited</t>
+  </si>
+  <si>
+    <t>Sumitomo Mitsui Trust Bank Limited</t>
+  </si>
+  <si>
+    <t>Sumitomo Mitsui Banking Corporation</t>
+  </si>
+  <si>
+    <t>Sumitomo Australia Pty Ltd</t>
+  </si>
+  <si>
+    <t>Unlikely to be settled in the next 12 months</t>
+  </si>
+  <si>
+    <t>The Bank of Tokyo (UFJ) Limited</t>
+  </si>
+  <si>
+    <t>Mitsui Banking Corporation</t>
+  </si>
+  <si>
+    <t>Total borrowings</t>
+  </si>
+  <si>
+    <t>Accumulated depreciation and impairment losses</t>
+  </si>
+  <si>
+    <t>Depreciation charge</t>
+  </si>
+  <si>
+    <t>Disposals</t>
+  </si>
+  <si>
+    <t>Computer equipment</t>
+  </si>
+  <si>
+    <t>(1,480)</t>
+  </si>
+  <si>
+    <t>(104)</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>(1,516)</t>
+  </si>
+  <si>
+    <t>Office equipment</t>
+  </si>
+  <si>
+    <t>(102)</t>
+  </si>
+  <si>
+    <t>(26)</t>
+  </si>
+  <si>
+    <t>(125)</t>
+  </si>
+  <si>
+    <t>Fixtures and fittings</t>
+  </si>
+  <si>
+    <t>(468)</t>
+  </si>
+  <si>
+    <t>(28)</t>
+  </si>
+  <si>
+    <t>(496)</t>
+  </si>
+  <si>
+    <t>Leasehold Improvement</t>
+  </si>
+  <si>
+    <t>(7)</t>
+  </si>
+  <si>
+    <t>Motor Vehicles</t>
+  </si>
+  <si>
+    <t>(107,207)</t>
+  </si>
+  <si>
+    <t>(47,263)</t>
+  </si>
+  <si>
+    <t>38016</t>
+  </si>
+  <si>
+    <t>(116,454)</t>
+  </si>
+  <si>
+    <t>(109,172)</t>
+  </si>
+  <si>
+    <t>(47,421)</t>
+  </si>
+  <si>
+    <t>38087</t>
+  </si>
+  <si>
+    <t>(118,598)</t>
+  </si>
+  <si>
+    <t>Likely to be recovered in the next 12 months</t>
+  </si>
+  <si>
+    <t>Plant and equipment leased to external parties pursuant to operating</t>
+  </si>
+  <si>
+    <t>Less: accumulated depreciation and impairment losses</t>
+  </si>
+  <si>
+    <t>Total operating leases</t>
+  </si>
+  <si>
+    <t>Unlikely to be recovered in the next 12 months</t>
+  </si>
+  <si>
+    <t>Plant and equipment - at cost</t>
+  </si>
+  <si>
+    <t>Less: accumulated depreciation</t>
+  </si>
+  <si>
+    <t>Total plant and equipment</t>
+  </si>
+  <si>
+    <t>Leasehold improvements</t>
+  </si>
+  <si>
+    <t>Total leasehold improvements</t>
+  </si>
+  <si>
+    <t>Total property, plant and equipment</t>
+  </si>
+  <si>
+    <t>114715</t>
+  </si>
+  <si>
+    <t>(69,616)</t>
+  </si>
+  <si>
+    <t>45099</t>
+  </si>
+  <si>
+    <t>183770</t>
+  </si>
+  <si>
+    <t>(46,838)</t>
+  </si>
+  <si>
+    <t>136932</t>
+  </si>
+  <si>
+    <t>2371</t>
+  </si>
+  <si>
+    <t>(2,137)</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>182268</t>
+  </si>
+  <si>
+    <t>99822</t>
+  </si>
+  <si>
+    <t>(58,841)</t>
+  </si>
+  <si>
+    <t>40981</t>
+  </si>
+  <si>
+    <t>184234</t>
+  </si>
+  <si>
+    <t>(48,366)</t>
+  </si>
+  <si>
+    <t>135868</t>
+  </si>
+  <si>
+    <t>2375</t>
+  </si>
+  <si>
+    <t>(2,050)</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>177177</t>
+  </si>
+  <si>
+    <t>Lease</t>
+  </si>
+  <si>
+    <t>Notes to the financial statements (continued)</t>
+  </si>
+  <si>
+    <t>Cash and cash equivalents</t>
+  </si>
+  <si>
+    <t>Cash at bank</t>
+  </si>
+  <si>
+    <t>Trade and other receivables</t>
+  </si>
+  <si>
+    <t>Trade</t>
+  </si>
+  <si>
+    <t>Finance lease receivables</t>
+  </si>
+  <si>
+    <t>Chattel mortgage</t>
+  </si>
+  <si>
+    <t>Other receivables and prepayments</t>
+  </si>
+  <si>
+    <t>Provision for impairment of receivables</t>
+  </si>
+  <si>
+    <t>Unlikely to be in the next 12 months</t>
+  </si>
+  <si>
+    <t>Finance lease</t>
+  </si>
+  <si>
+    <t>Chattel mortgage receivables</t>
+  </si>
+  <si>
+    <t>Total trade and other receivables</t>
+  </si>
+  <si>
+    <t>(b) Finance lease receivables</t>
+  </si>
+  <si>
+    <t>Balance at 31 March</t>
+  </si>
+  <si>
+    <t>(c) Chattel mortgage receivables</t>
   </si>
   <si>
     <t>In thousands OfAUD</t>
   </si>
   <si>
-    <t>Short-term employee benefits</t>
-  </si>
-  <si>
-    <t>Post-employment benefits</t>
-  </si>
-  <si>
-    <t>Compensation</t>
-  </si>
-  <si>
-    <t>c.Other related party transactions</t>
-  </si>
-  <si>
-    <t>In thousands of FAUD</t>
-  </si>
-  <si>
-    <t>Service fees</t>
-  </si>
-  <si>
-    <t>Guarantee Fees</t>
-  </si>
-  <si>
-    <t>Total guarantee fees</t>
-  </si>
-  <si>
-    <t>Dividend franking account 2022</t>
-  </si>
-  <si>
-    <t>Amount of franking credits available to shareholders of the Company for subsequent</t>
-  </si>
-  <si>
-    <t>financial years</t>
-  </si>
-  <si>
-    <t>Charge/credit to profit and loss</t>
-  </si>
-  <si>
-    <t>Additional provisions</t>
-  </si>
-  <si>
-    <t>Usage during the year</t>
-  </si>
-  <si>
-    <t>Unlikely to be recovered in the</t>
-  </si>
-  <si>
-    <t>next 12 months</t>
-  </si>
-  <si>
-    <t>Likely to be recovered in the next</t>
-  </si>
-  <si>
-    <t>12 months</t>
-  </si>
-  <si>
-    <t>Employee benefits</t>
-  </si>
-  <si>
-    <t>758</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>782</t>
-  </si>
-  <si>
-    <t>483</t>
-  </si>
-  <si>
-    <t>299</t>
-  </si>
-  <si>
-    <t>Makegood provision</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>768</t>
-  </si>
-  <si>
-    <t>792</t>
-  </si>
-  <si>
-    <t>493</t>
-  </si>
-  <si>
-    <t>Trade and other payables</t>
-  </si>
-  <si>
-    <t>Likely to be settled in the next 12 months</t>
-  </si>
-  <si>
-    <t>Unsecured liabilities</t>
-  </si>
-  <si>
-    <t>Trade payables</t>
-  </si>
-  <si>
-    <t>Other payables</t>
-  </si>
-  <si>
-    <t>Borrowings</t>
-  </si>
-  <si>
-    <t>Secured liabilities</t>
-  </si>
-  <si>
-    <t>The Bank of Tokyo - Mitsubishi (UFI) Limited</t>
-  </si>
-  <si>
-    <t>Mizuho Corporate Bank Limited</t>
-  </si>
-  <si>
-    <t>Sumitomo Mitsui Trust Bank Limited</t>
-  </si>
-  <si>
-    <t>Sumitomo Mitsui Banking Corporation</t>
-  </si>
-  <si>
-    <t>Sumitomo Australia Pty Ltd</t>
-  </si>
-  <si>
-    <t>Unlikely to be settled in the next 12 months</t>
-  </si>
-  <si>
-    <t>Total borrowings</t>
-  </si>
-  <si>
-    <t>Accumulated depreciation and impairment losses</t>
-  </si>
-  <si>
-    <t>Depreciation charge</t>
-  </si>
-  <si>
-    <t>Disposals</t>
-  </si>
-  <si>
-    <t>Computer equipment</t>
-  </si>
-  <si>
-    <t>(1,480)</t>
-  </si>
-  <si>
-    <t>(104)</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>(1,516)</t>
-  </si>
-  <si>
-    <t>Office equipment</t>
-  </si>
-  <si>
-    <t>(102)</t>
-  </si>
-  <si>
-    <t>(26)</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>(125)</t>
-  </si>
-  <si>
-    <t>Fixtures and fittings</t>
-  </si>
-  <si>
-    <t>(468)</t>
-  </si>
-  <si>
-    <t>(28)</t>
-  </si>
-  <si>
-    <t>(496)</t>
-  </si>
-  <si>
-    <t>Leasehold Improvement</t>
-  </si>
-  <si>
-    <t>(7)</t>
-  </si>
-  <si>
-    <t>Motor Vehicles</t>
-  </si>
-  <si>
-    <t>(107,207)</t>
-  </si>
-  <si>
-    <t>(47,263)</t>
-  </si>
-  <si>
-    <t>38016</t>
-  </si>
-  <si>
-    <t>(116,454)</t>
-  </si>
-  <si>
-    <t>(109,172)</t>
-  </si>
-  <si>
-    <t>(47,421)</t>
-  </si>
-  <si>
-    <t>38087</t>
-  </si>
-  <si>
-    <t>(118,598)</t>
-  </si>
-  <si>
-    <t>Likely to be recovered in the next 12 months</t>
-  </si>
-  <si>
-    <t>Plant and equipment leased to external parties pursuant to operating</t>
-  </si>
-  <si>
-    <t>Less: accumulated depreciation and impairment losses</t>
-  </si>
-  <si>
-    <t>Total operating leases</t>
-  </si>
-  <si>
-    <t>Unlikely to be recovered in the next 12 months</t>
-  </si>
-  <si>
-    <t>Plant and equipment = at cost</t>
-  </si>
-  <si>
-    <t>Less: accumulated depreciation</t>
-  </si>
-  <si>
-    <t>Total plant and equipment</t>
-  </si>
-  <si>
-    <t>Leasehold improvements</t>
-  </si>
-  <si>
-    <t>Total leasehold improvements</t>
-  </si>
-  <si>
-    <t>Total property, plant and equipment</t>
-  </si>
-  <si>
-    <t>114715</t>
-  </si>
-  <si>
-    <t>(69,616)</t>
-  </si>
-  <si>
-    <t>45099</t>
-  </si>
-  <si>
-    <t>183770</t>
-  </si>
-  <si>
-    <t>(46,838)</t>
-  </si>
-  <si>
-    <t>136932</t>
-  </si>
-  <si>
-    <t>2371</t>
-  </si>
-  <si>
-    <t>(2,137)</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>182268</t>
-  </si>
-  <si>
-    <t>99822</t>
-  </si>
-  <si>
-    <t>(58,841)</t>
-  </si>
-  <si>
-    <t>40981</t>
-  </si>
-  <si>
-    <t>184234</t>
-  </si>
-  <si>
-    <t>(48,366)</t>
-  </si>
-  <si>
-    <t>135868</t>
-  </si>
-  <si>
-    <t>2375</t>
-  </si>
-  <si>
-    <t>(2,050)</t>
-  </si>
-  <si>
-    <t>325</t>
-  </si>
-  <si>
-    <t>177177</t>
-  </si>
-  <si>
-    <t>Auto Lease Australia</t>
-  </si>
-  <si>
-    <t>Notes to the financial statements (continued)</t>
-  </si>
-  <si>
-    <t>Cash and cash equivalents</t>
-  </si>
-  <si>
-    <t>In thousands ofAUD</t>
-  </si>
-  <si>
-    <t>Cash at bank</t>
-  </si>
-  <si>
-    <t>Trade and other receivables</t>
-  </si>
-  <si>
-    <t>Trade receivables</t>
-  </si>
-  <si>
-    <t>Finance lease receivables</t>
-  </si>
-  <si>
-    <t>Chattel mortgage receivables</t>
-  </si>
-  <si>
-    <t>Other receivables and prepayments</t>
-  </si>
-  <si>
-    <t>Provision for impairment of receivables</t>
-  </si>
-  <si>
-    <t>Total trade and other receivables</t>
-  </si>
-  <si>
-    <t>(b) Finance lease receivables</t>
-  </si>
-  <si>
-    <t>Balance at 31 March</t>
-  </si>
-  <si>
-    <t>(c) Chattel mortgage receivables</t>
-  </si>
-  <si>
-    <t>Int thousands ofAUD</t>
-  </si>
-  <si>
     <t>Gross investment</t>
   </si>
   <si>
@@ -815,24 +830,27 @@
     <t>Cost:</t>
   </si>
   <si>
-    <t>Balance at 1 April 2021 1,623 177</t>
-  </si>
-  <si>
-    <t>Additions 60 1 7</t>
+    <t>Balance at 1 April2021 1,623 177</t>
+  </si>
+  <si>
+    <t>Additions 60 1</t>
   </si>
   <si>
     <t>Disposals (69) (3)</t>
   </si>
   <si>
-    <t>at 31 175 March 2022 1,614</t>
-  </si>
-  <si>
-    <t>Fixtures and Leasehold fittings Improvement</t>
+    <t>175 2022 1,614</t>
+  </si>
+  <si>
+    <t>Fixtures and fittings Improvement</t>
   </si>
   <si>
     <t>575 10</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>582 10</t>
   </si>
   <si>
@@ -947,7 +965,7 @@
     <t>300866</t>
   </si>
   <si>
-    <t>(c) Movement in deferred tax balances 2021</t>
+    <t>(c)Movement in deferred tax balances 2021</t>
   </si>
   <si>
     <t>Doubtful debts</t>
@@ -1055,7 +1073,7 @@
     <t>4. Income tax (continued)</t>
   </si>
   <si>
-    <t>(c) Movement in deferred tax balances 2022</t>
+    <t>(c)Movement in deferred tax balances 2022</t>
   </si>
   <si>
     <t>19</t>
@@ -1097,7 +1115,7 @@
     <t>(1,191)</t>
   </si>
   <si>
-    <t>Deferred liabilities</t>
+    <t>tax liabilities</t>
   </si>
   <si>
     <t>1191</t>
@@ -1133,10 +1151,10 @@
     <t>Income tax</t>
   </si>
   <si>
-    <t>(a). Amounts recognised in profit or loss</t>
-  </si>
-  <si>
-    <t>Current tax expense</t>
+    <t>(a) Amounts recognised in profit or loss</t>
+  </si>
+  <si>
+    <t>tax expense</t>
   </si>
   <si>
     <t>Current year</t>
@@ -1148,10 +1166,10 @@
     <t>Deferred tax expense</t>
   </si>
   <si>
-    <t>Deferred tax - origination and utilisation of carried forward tax losses</t>
-  </si>
-  <si>
-    <t>Deferred tax - origination and reversal of temporary differences</t>
+    <t>Deferred tax origination and utilisation of carried forward tax losses</t>
+  </si>
+  <si>
+    <t>Deferred tax origination and reversal of temporary differences</t>
   </si>
   <si>
     <t>(14,823)</t>
@@ -1190,49 +1208,49 @@
     <t>Revenue recognition (continued)</t>
   </si>
   <si>
-    <t>(i) Revenue from contracts with customers (continued)</t>
-  </si>
-  <si>
-    <t>Fleet management income and management fees are brought to account over time on a straight- line</t>
+    <t>(ii) Revenue from contracts with customers (continued)</t>
+  </si>
+  <si>
+    <t>Fleet management income and management fees are brought to over time on a straight-line</t>
   </si>
   <si>
     <t>basis over the term of the lease. Maintenance income is recognised over time as services are provided.</t>
   </si>
   <si>
-    <t>The amount of revenue to recognise is assessed based on the direct measurement of the value to the</t>
+    <t>The of revenue to recognise is assessed based on the direct of the value to the</t>
   </si>
   <si>
     <t>customer of services transferred to date, relative to the remaining goods or services promised under the</t>
   </si>
   <si>
-    <t>maintenance contract.</t>
+    <t>maintenance</t>
   </si>
   <si>
     <t>Additional products or services</t>
   </si>
   <si>
-    <t>Revenue from the sale of additional products and services is recognised as the goods are delivered and have been accepted by customers and services are provided. Generally revenue will be recognized using an input measure.</t>
+    <t>from the sale of additional products and services is recognised as the goods are delivered and have been accepted by customers and services are provided. Generally will be recognized using an input measure.</t>
   </si>
   <si>
     <t>Income earned after the expiry of a lease is recognised when it is received or when the performance obligation</t>
   </si>
   <si>
-    <t>has been satisfied and the right to payment is established. For income from used vehicle sales, revenue is</t>
-  </si>
-  <si>
-    <t>recognised when the customer obtains control of the vehicle. Generally revenue will be recognized using an</t>
-  </si>
-  <si>
-    <t>input measure.</t>
-  </si>
-  <si>
-    <t>Other income is recognised when the performance obligation has been satisfied and the right to payment is established. Generally revenue will be recognized using an input measure, typically costs incurred.</t>
+    <t>has been satisfied and the right to payment is established. For income from used vehicle sales, is</t>
+  </si>
+  <si>
+    <t>recognised when the customer obtains control of the vehicle. Generally will be recognized using an</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>Other income is recognised when the performance obligation has been satisfied and the right to payment is established. Generally will be recognized using an input measure, typically costs incurred.</t>
   </si>
   <si>
     <t>(ii) Interest income</t>
   </si>
   <si>
-    <t>Interest income is recognised as interest accrues using the effective interest method. This is a method of calculating the amortized cost ofa financial asset and allocating the interest income over the relevant period using the effective interest rate, which is the rate that exactly discounts estimated future cash receipts through the expected life of the financial asset to the net carrying amount of the financial asset.</t>
+    <t>Interest income is recognised as interest using the effective interest method. This is a method of calculating the amortized cost of a financial asset and allocating the interest income over the relevant period using the effective interest rate, which is the rate that exactly discounts estimated future cash receipts through the expected life of the financial asset to the net carrying amount of the financial asset.</t>
   </si>
   <si>
     <t>Finance costs comprise interest expense on borrowings and impairment losses recognised on financial assets (other than</t>
@@ -1244,10 +1262,10 @@
     <t>Revenue, expenses and assets are recognised net of the amount of GST, except where the amount of GST incurred is not</t>
   </si>
   <si>
-    <t>recoverable from the Australian Tax Office. In these circumstances the GST is recognised as part of the cost of acquisition of</t>
-  </si>
-  <si>
-    <t>the asset or as part of an item ofthe expense. Receivables and payables in the Balance Sheet are inclusive of GST</t>
+    <t>recoverable from the Australian Tax Office. In these the GST is recognised as part of the cost of acquisition of</t>
+  </si>
+  <si>
+    <t>the asset or as part of an item of the expense. Receivables and payables in the Sheet are inclusive of GST</t>
   </si>
   <si>
     <t>A number of new standards are effective for annual periods beginning after 1 April 2021, including AASB 1060 General</t>
@@ -1265,10 +1283,10 @@
     <t>(i) Non-financial assets</t>
   </si>
   <si>
-    <t>At each reporting date, the Company reviews the carrying amounts of its non-financial assets (other than inventories and</t>
-  </si>
-  <si>
-    <t>deferred tax assets) to determine whether there is any indication of impairment. If any such indication exists, then the asset's recoverable amount is estimated.</t>
+    <t>At each reporting date, the Company reviews the carrying amounts of its non- financial assets (other than and deferred tax assets) to determine whether there is any indication of impairment. If any such indication exists, then the</t>
+  </si>
+  <si>
+    <t>asset's recoverable amount is estimated.</t>
   </si>
   <si>
     <t>(i) Employee benefits</t>
@@ -1280,19 +1298,19 @@
     <t>Short-term employee benefit obligations are expensed as the related service is provided. A liability is recognised for the</t>
   </si>
   <si>
-    <t>amount expected to be paid under short-term cash bonus or profit-sharing plans if the Company has a present legal or</t>
-  </si>
-  <si>
-    <t>constructive obligation to pay this amount as a result of pastservice provided by the employee and the obligation can be</t>
+    <t>amount expected to be paid under short-term cash bonus or profit-sharing plans if the Company has a present legalor</t>
+  </si>
+  <si>
+    <t>constructive obligation to pay this amount as a result of past service provided by the employee and the obligation can be</t>
   </si>
   <si>
     <t>estimated reliably.</t>
   </si>
   <si>
-    <t>(i) Defined contribution plans</t>
-  </si>
-  <si>
-    <t>A defined contribution plan is a postemployment benefit plan under which an entity pays fixed contributions into a separate</t>
+    <t>(ii) Defined contribution plans</t>
+  </si>
+  <si>
+    <t>A defined contribution plan is a post-employment benefit plan under which an entity pays fixed contributions into a separate</t>
   </si>
   <si>
     <t>entity and will have no legal or constructive obligation to pay further amounts. Obligations for contributions to defined</t>
@@ -1304,7 +1322,7 @@
     <t>(ii) Long-term employee benefits</t>
   </si>
   <si>
-    <t>The Company's net obligation in respect of long term employee benefits is the amount of future benefit that employees</t>
+    <t>The Company's net obligation in respect of long- term employee benefits is the amount of future benefit that employees</t>
   </si>
   <si>
     <t>have earned in return for their service in the current and prior periods. That benefit is discounted to determine its present</t>
@@ -1316,16 +1334,16 @@
     <t>() Income tax</t>
   </si>
   <si>
-    <t>Income tax expense comprises current and deferred tax. Itis recognised in profit or loss except to the extent that it relates</t>
-  </si>
-  <si>
-    <t>to items recognised directly in equity or in other comprehensive income.</t>
+    <t>Income tax expense comprises current and deferred tax. It is recognised in profit or loss except to the extent that it relates</t>
+  </si>
+  <si>
+    <t>toi items recognised directly in equity or in other comprehensive income.</t>
   </si>
   <si>
     <t>i) Current tax</t>
   </si>
   <si>
-    <t>Current tax comprises the expected tax payable or receivable on the taxable income or loss for the year and any adjustment</t>
+    <t>Current tax comprises the expected tax payable or on the taxable income or loss for the year and any adjustment</t>
   </si>
   <si>
     <t>to tax payable or receivable in respect of previous years. It is measured using tax rates enacted or substantively enacted at</t>
@@ -1334,16 +1352,16 @@
     <t>the reporting date. Current tax also includes any tax liability arising from dividends.</t>
   </si>
   <si>
-    <t>(ii) Deferred tax</t>
-  </si>
-  <si>
-    <t>Deferred tax is recognised in respect of temporary differences between the carrying amounts of assets and liabilities for</t>
+    <t>(i) Deferred tax</t>
+  </si>
+  <si>
+    <t>Deferred tax is recognised in respect of temporary differences between the carrying of assets and liabilities for</t>
   </si>
   <si>
     <t>financial reporting purposes and the amounts used for taxation purposes. Deferred tax is not recognised for temporary</t>
   </si>
   <si>
-    <t>differences on the initial recognition of assets or liabilities in a transaction that is not a business combination and that</t>
+    <t>differences on the initial recognition of assets or liabilities in a transaction that is not a business and that</t>
   </si>
   <si>
     <t>affects neither accounting nor taxable profit or loss.</t>
@@ -1355,10 +1373,10 @@
     <t>based on the laws that have been enacted or substantively enacted at the reporting date.</t>
   </si>
   <si>
-    <t>The measurement of deferred tax reflects the tax consequences that would follow the in which the Company expects, at the reporting date, to recover or settle the carrying amount of its assets and liabilities.</t>
-  </si>
-  <si>
-    <t>A deferred tax asset is recognised for unused tax losses, tax credits and deductible temporary differences, to the extent that itis probable that future taxable profits will be available against which they can be utilised. Deferred tax assets are reviewed</t>
+    <t>The measurement of deferred tax reflects the tax consequences that would follow the in which the Company expects, at the reporting date, to or settle the carrying of its assets and liabilities.</t>
+  </si>
+  <si>
+    <t>A deferred tax asset is recognised for unused tax losses, tax credits and temporary differences, to the extent that iti is probable that future taxable profits will be available against which they can be utilised. Deferred tax assets are reviewed</t>
   </si>
   <si>
     <t>at each reporting date and are reduced to the extent that it is no longer probable that the related tax benefit will be</t>
@@ -1373,13 +1391,13 @@
     <t>(d) Presentation of statement of financial position on a liquidity basis</t>
   </si>
   <si>
-    <t>The statement of financial position has been presented on a liquidity basis as this presentation provides information that is more reliable and relevant to users in assessing the financial position of a leasing and fleet business where the realisation of</t>
+    <t>The statement of financial position has been presented on a liquidity basis as this presentation provides information that is more reliable and relevant to users in assessing the financial position of a leasing and fleet business where the of</t>
   </si>
   <si>
     <t>PP&amp;E assets is directly linked to underlying lease terms. The notes to the financial statements disclose the amount expected</t>
   </si>
   <si>
-    <t>to be recovered or settled after more than twelve months for each asset and liability line item that combines amounts</t>
+    <t>tobe recovered or settled after more than twelve months for each asset and liability line item that amounts</t>
   </si>
   <si>
     <t>expected to be recovered or settled no more than twelve months after the reporting period, and more than twelve months</t>
@@ -1397,7 +1415,7 @@
     <t>(f) Property, plant and equipment</t>
   </si>
   <si>
-    <t>(1) Recognition, measurement, and disposal</t>
+    <t>(i) Recognition, measurement, and disposal</t>
   </si>
   <si>
     <t>Items of property, plant and equipment are measured at cost less accumulated depreciation and accumulated impairment</t>
@@ -1406,7 +1424,7 @@
     <t>losses. Cost includes expenditure that is directly attributable to the acquisition of the asset. Purchased software that is</t>
   </si>
   <si>
-    <t>integral to the functionality of the related equipment is capitalised as parto of that equipment. When parts of an item of</t>
+    <t>integral to the functionality of the related equipment is capitalised as part of that equipment. When parts of an item of</t>
   </si>
   <si>
     <t>property, plant and equipment have different useful lives, they are accounted for as separate items (major components) of</t>
@@ -1427,16 +1445,16 @@
     <t>when they cease to be rented and become held-for-sale. The proceeds from disposals of motor vehicles which were leased</t>
   </si>
   <si>
-    <t>to customers are recognised as revenue.</t>
-  </si>
-  <si>
-    <t>(i) Subsequent costs</t>
-  </si>
-  <si>
-    <t>Subsequent expenditure is capitalised only when it is probable that the future economic benefits associated with the expenditure will flow to the Company.</t>
-  </si>
-  <si>
-    <t>(ii) Depreciation and impairment</t>
+    <t>to customers are recognised as reve</t>
+  </si>
+  <si>
+    <t>(ii) Subsequent costs</t>
+  </si>
+  <si>
+    <t>Subsequent expenditure is capitalised only when it is probable that the future economic benefits with the expenditure will flow to the Company.</t>
+  </si>
+  <si>
+    <t>(ili) Depreciation and impairment</t>
   </si>
   <si>
     <t>Depreciation is calculated to write off the cost of property, plant and equipment less their estimated residual value using</t>
@@ -1454,13 +1472,13 @@
     <t>shortfall, an impairment charge is recognised in the current period.</t>
   </si>
   <si>
-    <t>The following useful lives are used in the calculation of depreciation:</t>
+    <t>The following useful lives are used in the of depreciation:</t>
   </si>
   <si>
     <t>Plant and equipment: 3 15 years</t>
   </si>
   <si>
-    <t>Furniture and fittings: 3 - 15 years</t>
+    <t>Furniture and fittings: 3 15 years</t>
   </si>
   <si>
     <t>Motor vehicles: 3 8 years</t>
@@ -1508,7 +1526,7 @@
     <t>Net Income tax paid</t>
   </si>
   <si>
-    <t>Net cash used in operating activities</t>
+    <t>Net cash used in operating</t>
   </si>
   <si>
     <t>Cash flows from investing activities</t>
@@ -1694,16 +1712,13 @@
     <t>Contract asset</t>
   </si>
   <si>
-    <t>Total assets</t>
+    <t>Totalassets</t>
   </si>
   <si>
     <t>Liabilities</t>
   </si>
   <si>
-    <t>Contract Liabilities</t>
-  </si>
-  <si>
-    <t>Lease Liabilities - right-of-use assets</t>
+    <t>Lease right-of-use assets</t>
   </si>
   <si>
     <t>Provisions</t>
@@ -1724,9 +1739,6 @@
     <t>Total equity</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -1752,9 +1764,6 @@
   </si>
   <si>
     <t>12</t>
-  </si>
-  <si>
-    <t>Revenue</t>
   </si>
   <si>
     <t>Sale of used vehicles</t>
@@ -2308,10 +2317,10 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2322,16 +2331,16 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2345,13 +2354,13 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2387,16 +2396,16 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2410,13 +2419,13 @@
         <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2470,12 +2479,12 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c r="B3">
         <v>2022</v>
@@ -2486,7 +2495,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B4">
         <v>2232</v>
@@ -2497,7 +2506,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B5">
         <v>126</v>
@@ -2508,7 +2517,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B6">
         <v>2358</v>
@@ -2519,12 +2528,12 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="B8">
         <v>2022</v>
@@ -2540,7 +2549,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="B10">
         <v>75</v>
@@ -2551,7 +2560,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B11">
         <v>2022</v>
@@ -2562,7 +2571,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B12">
         <v>258</v>
@@ -2573,7 +2582,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B13">
         <v>146</v>
@@ -2584,7 +2593,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B14">
         <v>26</v>
@@ -2595,7 +2604,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B15">
         <v>430</v>
@@ -2627,7 +2636,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B2">
         <v>2021</v>
@@ -2635,12 +2644,12 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B4">
         <v>3502</v>
@@ -2648,7 +2657,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2683,114 +2692,114 @@
     </row>
     <row r="2" spans="1:5">
       <c r="B2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="C12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2819,17 +2828,17 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B4">
         <v>2022</v>
@@ -2840,12 +2849,12 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B6">
         <v>21332</v>
@@ -2856,7 +2865,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B7">
         <v>3303</v>
@@ -2875,17 +2884,17 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B11">
         <v>2022</v>
@@ -2896,12 +2905,12 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B13">
         <v>16000</v>
@@ -2909,7 +2918,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B14">
         <v>17000</v>
@@ -2920,7 +2929,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B15">
         <v>7500</v>
@@ -2931,7 +2940,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B16">
         <v>15500</v>
@@ -2942,7 +2951,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B17">
         <v>4500</v>
@@ -2961,12 +2970,12 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B20">
         <v>2022</v>
@@ -2977,12 +2986,12 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B22">
         <v>19000</v>
@@ -2993,7 +3002,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B23">
         <v>34500</v>
@@ -3004,7 +3013,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B24">
         <v>22000</v>
@@ -3015,7 +3024,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B25">
         <v>7000</v>
@@ -3026,7 +3035,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B26">
         <v>7000</v>
@@ -3045,7 +3054,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B28">
         <v>150000</v>
@@ -3092,113 +3101,110 @@
     </row>
     <row r="2" spans="1:7">
       <c r="B2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G6" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -3227,166 +3233,166 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C4" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C5" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B6" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C6" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C8" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C9" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C10" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C11" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C12" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C13" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B15" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C15" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B16" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="C16" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B17" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C17" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -3488,365 +3494,365 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>237</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C6" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="D6" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C10" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="D10" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C11" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D11" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C12" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D12" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C13" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="D13" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C14" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="D14" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="C15" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D15" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>207</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C17" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="D17" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="C18" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D18" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C19" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="D19" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C22" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D22" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C23" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D23" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C26" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D26" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C27" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D27" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C28" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D28" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C31" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="D31" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B35" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C35" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D35" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B37" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C37" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D37" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B38" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="C38" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D38" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C39" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="D39" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B40" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C40" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D40" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -3884,160 +3890,160 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B2" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C2" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="D2" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="E2" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="F2" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B3" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C3" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D3" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="E3" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B4" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C4" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="D4" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="E4" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C5" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D5" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="E5" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C6" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="D6" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="E6" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="F7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C8" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D8" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="E8" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C9" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="D9" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="E9" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="F9" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="E10" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="F10" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="E11" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="F11" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -4075,173 +4081,173 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B4" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C4" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="D4" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="E4" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="F4" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C5" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="D5" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="E5" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B6" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C6" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="D6" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="E6" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="D7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="E7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="D8" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="E8" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B9" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C9" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="D9" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="F9" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B10" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="C10" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="D10" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="E10" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C11" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="D11" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="E11" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="F11" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="E12" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="F12" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="B13" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="E13" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="F13" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -4285,192 +4291,192 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="F8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -4499,12 +4505,12 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="B3">
         <v>2022</v>
@@ -4515,7 +4521,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B4">
         <v>56505</v>
@@ -4526,12 +4532,12 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="B6">
         <v>10515</v>
@@ -4542,7 +4548,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B7">
         <v>11929</v>
@@ -4553,7 +4559,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="B8">
         <v>1356</v>
@@ -4564,7 +4570,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B9">
         <v>546</v>
@@ -4583,7 +4589,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="B11">
         <v>80851</v>
@@ -4618,76 +4624,76 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B10" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="C10" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B11" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C11" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C12" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -4713,50 +4719,50 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B3" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B4" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B5" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -4779,137 +4785,137 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -4932,192 +4938,192 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -5140,187 +5146,187 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -5352,230 +5358,230 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="C7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="D7" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="C8" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="D8" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="C9" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="D9" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="C10" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="D10" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="C11" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="D11" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="C13" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="D13" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="C15" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="D15" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="C16" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="D16" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="C18" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="D18" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="C19" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="D19" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="C20" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="D20" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="C21" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="D21" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="C22" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="D22" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="C23" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="D23" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="C24" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D24" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="B25" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="C25" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="D25" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -5607,123 +5613,123 @@
     </row>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="C2" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="D2" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="B5" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="C5" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="D5" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="C6" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="D6" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>538</v>
+      </c>
+      <c r="C7" t="s">
         <v>532</v>
       </c>
-      <c r="C7" t="s">
-        <v>526</v>
-      </c>
       <c r="D7" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="B8" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="C8" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="D8" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="C9" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="D9" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="C10" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="D10" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="C11" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="D11" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="C12" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="D12" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -5755,10 +5761,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="C2">
         <v>2022</v>
@@ -5769,12 +5775,15 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>236</v>
+        <v>239</v>
+      </c>
+      <c r="B4" t="s">
+        <v>508</v>
       </c>
       <c r="C4">
         <v>7114</v>
@@ -5785,7 +5794,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>239</v>
+        <v>241</v>
+      </c>
+      <c r="B5" t="s">
+        <v>322</v>
       </c>
       <c r="C5">
         <v>59529</v>
@@ -5796,10 +5808,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B6" t="s">
-        <v>560</v>
+        <v>268</v>
       </c>
       <c r="C6">
         <v>233</v>
@@ -5810,15 +5822,15 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B8" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C8">
         <v>18442</v>
@@ -5829,10 +5841,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="B9" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C9">
         <v>8810</v>
@@ -5843,10 +5855,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B10" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C10">
         <v>182268</v>
@@ -5857,10 +5869,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C11">
         <v>1127</v>
@@ -5871,7 +5883,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="C12">
         <v>277523</v>
@@ -5882,15 +5894,15 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="C14">
         <v>24635</v>
@@ -5901,10 +5913,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C15">
         <v>150000</v>
@@ -5915,10 +5927,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="B16" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="C16">
         <v>91</v>
@@ -5929,10 +5941,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="B17" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C17">
         <v>1270</v>
@@ -5943,10 +5955,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B18" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="C18">
         <v>792</v>
@@ -5957,10 +5969,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="B19" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C19">
         <v>32277</v>
@@ -5971,7 +5983,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="C20">
         <v>209065</v>
@@ -5982,7 +5994,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="C21">
         <v>68458</v>
@@ -5993,15 +6005,15 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B23" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="C23">
         <v>32000</v>
@@ -6012,7 +6024,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="C24">
         <v>36458</v>
@@ -6023,7 +6035,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="C25">
         <v>68458</v>
@@ -6061,184 +6073,181 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>570</v>
-      </c>
       <c r="B3" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C3" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="D3" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="C4" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="D4" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="C5" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="D5" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="C6" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="D6" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C7" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="D7" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="C8" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="D8" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="C9" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="D9" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="C10" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="D10" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="C11" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="D11" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="C12" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="D12" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="C13" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="D13" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="B14" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C14" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="D14" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="C16" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="D16" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="C18" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="D18" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -6261,7 +6270,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -6288,237 +6297,232 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>49</v>
-      </c>
-    </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="C4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="B24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -6603,66 +6607,63 @@
     </row>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>52</v>
-      </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -6691,17 +6692,17 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="B4">
         <v>2022</v>
@@ -6712,7 +6713,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B5">
         <v>60</v>
@@ -6723,7 +6724,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B6">
         <v>34</v>
@@ -6734,12 +6735,15 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -6750,12 +6754,12 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="B10">
         <v>2022</v>
@@ -6766,7 +6770,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C11">
         <v>22</v>
@@ -6779,7 +6783,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B13">
         <v>2022</v>
@@ -6790,7 +6794,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B14">
         <v>11500</v>
@@ -6825,90 +6829,90 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -6937,7 +6941,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B2">
         <v>2022</v>
@@ -6948,12 +6952,12 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B4">
         <v>32000</v>
@@ -6964,7 +6968,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B5">
         <v>2022</v>
@@ -6975,7 +6979,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B6">
         <v>32000</v>
@@ -6986,12 +6990,12 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B8">
         <v>32000</v>
